--- a/grocery/grocery.xlsx
+++ b/grocery/grocery.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_repo\automated_grocery_list\grocery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56237E1C-E48A-457A-B8BF-523056BD00C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1EA093-58A9-4882-AF1C-C0BA138A5262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{61C671A2-11E5-4B70-AF1E-44D95A4BDD21}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{61C671A2-11E5-4B70-AF1E-44D95A4BDD21}"/>
   </bookViews>
   <sheets>
     <sheet name="inventory" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="190">
   <si>
     <t>Semaine</t>
   </si>
@@ -321,9 +321,6 @@
     <t>Sauce bbq</t>
   </si>
   <si>
-    <t>Sauce brune</t>
-  </si>
-  <si>
     <t>Sauce soya</t>
   </si>
   <si>
@@ -486,9 +483,6 @@
     <t>Couscous et saucisses</t>
   </si>
   <si>
-    <t>Poulet, patate pilée et sauce brune</t>
-  </si>
-  <si>
     <t>Shish taouk et patate grec</t>
   </si>
   <si>
@@ -607,6 +601,15 @@
   </si>
   <si>
     <t>Store</t>
+  </si>
+  <si>
+    <t>Appart</t>
+  </si>
+  <si>
+    <t>Costco</t>
+  </si>
+  <si>
+    <t>Poulet, patate pilée et sauce bbq</t>
   </si>
 </sst>
 </file>
@@ -998,11 +1001,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5EE295-D5EB-4158-B8A8-A538E9BFF134}">
-  <dimension ref="A1:D133"/>
+  <dimension ref="A1:D132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H126" sqref="H126"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1010,6 +1013,7 @@
     <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1023,7 +1027,7 @@
         <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1036,6 +1040,9 @@
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1047,6 +1054,9 @@
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1058,6 +1068,9 @@
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1069,6 +1082,9 @@
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1080,6 +1096,9 @@
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="D6" s="2" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1091,6 +1110,9 @@
       <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="D7" s="2" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1102,27 +1124,36 @@
       <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="D8" s="2" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1135,16 +1166,22 @@
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="D11" s="2" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1157,6 +1194,9 @@
       <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="D13" s="2" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1168,6 +1208,9 @@
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="D14" s="2" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1179,6 +1222,9 @@
       <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="D15" s="2" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1190,8 +1236,11 @@
       <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1201,8 +1250,11 @@
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1212,10 +1264,13 @@
       <c r="C18" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>14</v>
@@ -1223,8 +1278,11 @@
       <c r="C19" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -1234,8 +1292,11 @@
       <c r="C20" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -1245,8 +1306,11 @@
       <c r="C21" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -1256,8 +1320,11 @@
       <c r="C22" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -1267,10 +1334,13 @@
       <c r="C23" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>14</v>
@@ -1278,8 +1348,11 @@
       <c r="C24" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -1289,8 +1362,11 @@
       <c r="C25" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -1300,10 +1376,13 @@
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>15</v>
@@ -1311,8 +1390,11 @@
       <c r="C27" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -1322,10 +1404,13 @@
       <c r="C28" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>14</v>
@@ -1333,8 +1418,11 @@
       <c r="C29" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1344,10 +1432,13 @@
       <c r="C30" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>14</v>
@@ -1355,10 +1446,13 @@
       <c r="C31" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>14</v>
@@ -1366,10 +1460,13 @@
       <c r="C32" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>14</v>
@@ -1377,8 +1474,11 @@
       <c r="C33" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -1388,8 +1488,11 @@
       <c r="C34" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1399,8 +1502,11 @@
       <c r="C35" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1410,8 +1516,11 @@
       <c r="C36" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1421,10 +1530,13 @@
       <c r="C37" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>14</v>
@@ -1432,30 +1544,39 @@
       <c r="C38" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>122</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>123</v>
-      </c>
       <c r="B40" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1465,8 +1586,11 @@
       <c r="C41" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1476,8 +1600,11 @@
       <c r="C42" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1487,8 +1614,11 @@
       <c r="C43" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1498,8 +1628,11 @@
       <c r="C44" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1509,10 +1642,13 @@
       <c r="C45" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>14</v>
@@ -1520,8 +1656,11 @@
       <c r="C46" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -1531,8 +1670,11 @@
       <c r="C47" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -1542,8 +1684,11 @@
       <c r="C48" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -1553,10 +1698,13 @@
       <c r="C49" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>14</v>
@@ -1564,8 +1712,11 @@
       <c r="C50" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -1575,8 +1726,11 @@
       <c r="C51" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -1586,8 +1740,11 @@
       <c r="C52" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -1597,8 +1754,11 @@
       <c r="C53" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D53" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -1608,8 +1768,11 @@
       <c r="C54" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D54" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -1619,8 +1782,11 @@
       <c r="C55" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D55" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -1630,10 +1796,13 @@
       <c r="C56" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D56" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>15</v>
@@ -1641,8 +1810,11 @@
       <c r="C57" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D57" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -1652,8 +1824,11 @@
       <c r="C58" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D58" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -1663,8 +1838,11 @@
       <c r="C59" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D59" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -1674,10 +1852,13 @@
       <c r="C60" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D60" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>14</v>
@@ -1685,8 +1866,11 @@
       <c r="C61" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D61" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>58</v>
       </c>
@@ -1696,8 +1880,11 @@
       <c r="C62" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D62" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>59</v>
       </c>
@@ -1707,8 +1894,11 @@
       <c r="C63" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D63" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>60</v>
       </c>
@@ -1718,8 +1908,11 @@
       <c r="C64" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D64" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>61</v>
       </c>
@@ -1729,8 +1922,11 @@
       <c r="C65" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D65" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>62</v>
       </c>
@@ -1740,8 +1936,11 @@
       <c r="C66" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D66" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>63</v>
       </c>
@@ -1751,8 +1950,11 @@
       <c r="C67" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D67" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>64</v>
       </c>
@@ -1762,10 +1964,13 @@
       <c r="C68" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D68" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>14</v>
@@ -1773,10 +1978,13 @@
       <c r="C69" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D69" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>15</v>
@@ -1784,8 +1992,11 @@
       <c r="C70" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D70" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>65</v>
       </c>
@@ -1795,8 +2006,11 @@
       <c r="C71" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D71" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>66</v>
       </c>
@@ -1806,10 +2020,13 @@
       <c r="C72" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D72" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>15</v>
@@ -1817,8 +2034,11 @@
       <c r="C73" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D73" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>67</v>
       </c>
@@ -1828,10 +2048,13 @@
       <c r="C74" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D74" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>14</v>
@@ -1839,8 +2062,11 @@
       <c r="C75" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D75" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>68</v>
       </c>
@@ -1850,8 +2076,11 @@
       <c r="C76" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D76" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>69</v>
       </c>
@@ -1861,8 +2090,11 @@
       <c r="C77" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D77" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>70</v>
       </c>
@@ -1872,8 +2104,11 @@
       <c r="C78" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D78" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>71</v>
       </c>
@@ -1883,8 +2118,11 @@
       <c r="C79" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D79" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>72</v>
       </c>
@@ -1894,8 +2132,11 @@
       <c r="C80" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D80" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>73</v>
       </c>
@@ -1905,10 +2146,13 @@
       <c r="C81" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D81" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>15</v>
@@ -1916,41 +2160,53 @@
       <c r="C82" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D82" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
+        <v>125</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>132</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>126</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>133</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>127</v>
-      </c>
       <c r="B85" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D85" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>74</v>
       </c>
@@ -1960,8 +2216,11 @@
       <c r="C86" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D86" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>75</v>
       </c>
@@ -1971,8 +2230,11 @@
       <c r="C87" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D87" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>76</v>
       </c>
@@ -1982,8 +2244,11 @@
       <c r="C88" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D88" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>77</v>
       </c>
@@ -1993,8 +2258,11 @@
       <c r="C89" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D89" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>78</v>
       </c>
@@ -2004,10 +2272,13 @@
       <c r="C90" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D90" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>14</v>
@@ -2015,8 +2286,11 @@
       <c r="C91" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D91" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>79</v>
       </c>
@@ -2026,8 +2300,11 @@
       <c r="C92" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D92" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>80</v>
       </c>
@@ -2037,8 +2314,11 @@
       <c r="C93" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D93" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>81</v>
       </c>
@@ -2048,8 +2328,11 @@
       <c r="C94" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D94" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>82</v>
       </c>
@@ -2059,8 +2342,11 @@
       <c r="C95" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D95" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>83</v>
       </c>
@@ -2070,8 +2356,11 @@
       <c r="C96" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D96" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>84</v>
       </c>
@@ -2081,8 +2370,11 @@
       <c r="C97" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D97" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>85</v>
       </c>
@@ -2092,8 +2384,11 @@
       <c r="C98" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D98" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>86</v>
       </c>
@@ -2103,8 +2398,11 @@
       <c r="C99" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D99" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>87</v>
       </c>
@@ -2114,10 +2412,13 @@
       <c r="C100" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D100" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>14</v>
@@ -2125,8 +2426,11 @@
       <c r="C101" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D101" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>88</v>
       </c>
@@ -2136,10 +2440,13 @@
       <c r="C102" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D102" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>15</v>
@@ -2147,10 +2454,13 @@
       <c r="C103" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D103" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>15</v>
@@ -2158,8 +2468,11 @@
       <c r="C104" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D104" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>89</v>
       </c>
@@ -2169,8 +2482,11 @@
       <c r="C105" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D105" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>90</v>
       </c>
@@ -2180,8 +2496,11 @@
       <c r="C106" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D106" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>91</v>
       </c>
@@ -2191,8 +2510,11 @@
       <c r="C107" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D107" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>92</v>
       </c>
@@ -2202,30 +2524,39 @@
       <c r="C108" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D108" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>93</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>94</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D110" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>95</v>
       </c>
@@ -2235,30 +2566,39 @@
       <c r="C111" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D111" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>96</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>97</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>98</v>
       </c>
@@ -2268,8 +2608,11 @@
       <c r="C114" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D114" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>99</v>
       </c>
@@ -2279,8 +2622,11 @@
       <c r="C115" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D115" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>100</v>
       </c>
@@ -2288,10 +2634,13 @@
         <v>14</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>101</v>
       </c>
@@ -2299,10 +2648,13 @@
         <v>14</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>102</v>
       </c>
@@ -2312,19 +2664,25 @@
       <c r="C118" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D118" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>103</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>104</v>
       </c>
@@ -2334,8 +2692,11 @@
       <c r="C120" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D120" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>105</v>
       </c>
@@ -2345,8 +2706,11 @@
       <c r="C121" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D121" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>106</v>
       </c>
@@ -2356,19 +2720,25 @@
       <c r="C122" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D122" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>107</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>108</v>
       </c>
@@ -2378,30 +2748,39 @@
       <c r="C124" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D124" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>109</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>110</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>111</v>
       </c>
@@ -2411,30 +2790,39 @@
       <c r="C127" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D127" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
+        <v>165</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
         <v>112</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>167</v>
-      </c>
       <c r="B129" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>113</v>
       </c>
@@ -2442,10 +2830,13 @@
         <v>14</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>114</v>
       </c>
@@ -2453,10 +2844,13 @@
         <v>14</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>115</v>
       </c>
@@ -2466,28 +2860,20 @@
       <c r="C132" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>116</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>14</v>
+      <c r="D132" s="2" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{CE5EE295-D5EB-4158-B8A8-A538E9BFF134}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D133">
-    <sortCondition ref="A2:A133"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D132">
+    <sortCondition ref="A2:A132"/>
   </sortState>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B119:C1048576" xr:uid="{62FA2DBA-9F3B-4EC0-A890-91170B0463AE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B118:C1048576" xr:uid="{62FA2DBA-9F3B-4EC0-A890-91170B0463AE}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:C118" xr:uid="{C9156C60-5DF4-4C3A-92F2-343AF651F593}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:C117" xr:uid="{C9156C60-5DF4-4C3A-92F2-343AF651F593}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{0AF9494F-23C4-4BE0-99A3-981AF9639D65}">
@@ -2502,8 +2888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E7B79B-27E5-45CE-B6D8-0FC90E03396E}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2532,7 +2918,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2543,7 +2929,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2551,10 +2937,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2565,7 +2951,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -2573,10 +2959,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -2584,10 +2970,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -2595,10 +2981,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -2606,10 +2992,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -2617,10 +3003,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -2628,10 +3014,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -2639,10 +3025,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -2653,7 +3039,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -2661,10 +3047,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -2672,10 +3058,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -2683,10 +3069,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -2694,10 +3080,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -2708,7 +3094,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -2716,10 +3102,10 @@
         <v>5</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -2727,10 +3113,10 @@
         <v>5</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -2741,7 +3127,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -2749,7 +3135,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
@@ -2760,10 +3146,10 @@
         <v>6</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -2771,10 +3157,10 @@
         <v>6</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -2782,10 +3168,10 @@
         <v>6</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/grocery/grocery.xlsx
+++ b/grocery/grocery.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_repo\automated_grocery_list\grocery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1EA093-58A9-4882-AF1C-C0BA138A5262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948D3ABC-3096-4AD6-96C6-8D6AD93D3F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{61C671A2-11E5-4B70-AF1E-44D95A4BDD21}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{61C671A2-11E5-4B70-AF1E-44D95A4BDD21}"/>
   </bookViews>
   <sheets>
     <sheet name="inventory" sheetId="2" r:id="rId1"/>
     <sheet name="recipes" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">inventory!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">inventory!$A$1:$D$132</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1003,9 +1003,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5EE295-D5EB-4158-B8A8-A538E9BFF134}">
   <dimension ref="A1:D132"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1203,7 +1203,7 @@
         <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>14</v>
@@ -1651,7 +1651,7 @@
         <v>185</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>14</v>
@@ -2015,7 +2015,7 @@
         <v>66</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>14</v>
@@ -2141,7 +2141,7 @@
         <v>73</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>15</v>
@@ -2841,7 +2841,7 @@
         <v>114</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>14</v>
@@ -2855,7 +2855,7 @@
         <v>115</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>14</v>
@@ -2865,7 +2865,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{CE5EE295-D5EB-4158-B8A8-A538E9BFF134}"/>
+  <autoFilter ref="A1:D132" xr:uid="{CE5EE295-D5EB-4158-B8A8-A538E9BFF134}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D132">
     <sortCondition ref="A2:A132"/>
   </sortState>
@@ -2888,7 +2888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E7B79B-27E5-45CE-B6D8-0FC90E03396E}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>

--- a/grocery/grocery.xlsx
+++ b/grocery/grocery.xlsx
@@ -2,45 +2,446 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_repo\automated_grocery_list\grocery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948D3ABC-3096-4AD6-96C6-8D6AD93D3F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DB1519-1443-4CBC-A377-013C5D9181D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{61C671A2-11E5-4B70-AF1E-44D95A4BDD21}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="inventory" sheetId="2" r:id="rId1"/>
-    <sheet name="recipes" sheetId="1" r:id="rId2"/>
+    <sheet name="inventory" sheetId="1" r:id="rId1"/>
+    <sheet name="recipes" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">inventory!$A$1:$D$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">inventory!$A$1:$D$135</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="192">
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>In stock</t>
+  </si>
+  <si>
+    <t>Recurring</t>
+  </si>
+  <si>
+    <t>Store</t>
+  </si>
+  <si>
+    <t>Ail</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Appart</t>
+  </si>
+  <si>
+    <t>Banane</t>
+  </si>
+  <si>
+    <t>Barre tendre Kim</t>
+  </si>
+  <si>
+    <t>Barre tendre Xav</t>
+  </si>
+  <si>
+    <t>Costco</t>
+  </si>
+  <si>
+    <t>Belsoy</t>
+  </si>
+  <si>
+    <t>Beurre</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Beurre de peanut</t>
+  </si>
+  <si>
+    <t>Blé d'inde en canne</t>
+  </si>
+  <si>
+    <t>Bouillon de boeuf</t>
+  </si>
+  <si>
+    <t>Bouillon de poulet</t>
+  </si>
+  <si>
+    <t>Bovril boeuf</t>
+  </si>
+  <si>
+    <t>Bran buds</t>
+  </si>
+  <si>
+    <t>Brocoli</t>
+  </si>
+  <si>
+    <t>Café</t>
+  </si>
+  <si>
+    <t>Cannelle</t>
+  </si>
+  <si>
+    <t>Carotte</t>
+  </si>
+  <si>
+    <t>Cassonade</t>
+  </si>
+  <si>
+    <t>Céleri</t>
+  </si>
+  <si>
+    <t>Chili broyé</t>
+  </si>
+  <si>
+    <t>Compote</t>
+  </si>
+  <si>
+    <t>Concombre</t>
+  </si>
+  <si>
+    <t>Coriande</t>
+  </si>
+  <si>
+    <t>Cornichon</t>
+  </si>
+  <si>
+    <t>Couscous</t>
+  </si>
+  <si>
+    <t>Crème à raser</t>
+  </si>
+  <si>
+    <t>Crème sans lactose</t>
+  </si>
+  <si>
+    <t>Cumin</t>
+  </si>
+  <si>
+    <t>Épice à fajitas</t>
+  </si>
+  <si>
+    <t>Épice à légume</t>
+  </si>
+  <si>
+    <t>Épice à steak</t>
+  </si>
+  <si>
+    <t>Épice à tacos</t>
+  </si>
+  <si>
+    <t>Épice italienne</t>
+  </si>
+  <si>
+    <t>Épice poulet</t>
+  </si>
+  <si>
+    <t>Éponge à vaiselle</t>
+  </si>
+  <si>
+    <t>Farine</t>
+  </si>
+  <si>
+    <t>Fécule de mais</t>
+  </si>
+  <si>
+    <t>Feta</t>
+  </si>
+  <si>
+    <t>Fève germée</t>
+  </si>
+  <si>
+    <t>Fève verte</t>
+  </si>
+  <si>
+    <t>Framboise congelé</t>
+  </si>
+  <si>
+    <t>Fromage</t>
+  </si>
+  <si>
+    <t>Fromage râpé</t>
+  </si>
+  <si>
+    <t>Fruits</t>
+  </si>
+  <si>
+    <t>Gingembre</t>
+  </si>
+  <si>
+    <t>Granola kim</t>
+  </si>
+  <si>
+    <t>Haricot blanc</t>
+  </si>
+  <si>
+    <t>Haricot noir</t>
+  </si>
+  <si>
+    <t>Haricot rouge</t>
+  </si>
+  <si>
+    <t>Herbe de provence</t>
+  </si>
+  <si>
+    <t>Hertel</t>
+  </si>
+  <si>
+    <t>Huile de canola</t>
+  </si>
+  <si>
+    <t>Huile de sésame</t>
+  </si>
+  <si>
+    <t>Huile d'olive</t>
+  </si>
+  <si>
+    <t>Jus d'anana</t>
+  </si>
+  <si>
+    <t>Jus de citron</t>
+  </si>
+  <si>
+    <t>Jus de lime</t>
+  </si>
+  <si>
+    <t>Ketchup</t>
+  </si>
+  <si>
+    <t>Lait</t>
+  </si>
+  <si>
+    <t>Laitue</t>
+  </si>
+  <si>
+    <t>Longe de porc</t>
+  </si>
+  <si>
+    <t>Lysol</t>
+  </si>
+  <si>
+    <t>Margarine</t>
+  </si>
+  <si>
+    <t>Mayonnaise</t>
+  </si>
+  <si>
+    <t>Mélasse</t>
+  </si>
+  <si>
+    <t>Moutarde</t>
+  </si>
+  <si>
+    <t>Moutarde de dijon</t>
+  </si>
+  <si>
+    <t>Moutarde moulu</t>
+  </si>
+  <si>
+    <t>Nouille au oeufs</t>
+  </si>
+  <si>
+    <t>Nouille de riz</t>
+  </si>
+  <si>
+    <t>Oeuf</t>
+  </si>
+  <si>
+    <t>Oignon</t>
+  </si>
+  <si>
+    <t>Olive noire</t>
+  </si>
+  <si>
+    <t>Pain</t>
+  </si>
+  <si>
+    <t>Pain hamburger</t>
+  </si>
+  <si>
+    <t>Pain naan</t>
+  </si>
+  <si>
+    <t>Papier essuie-tout</t>
+  </si>
+  <si>
+    <t>Papier toilette</t>
+  </si>
+  <si>
+    <t>Paprika</t>
+  </si>
+  <si>
+    <t>Parmesan</t>
+  </si>
+  <si>
+    <t>Patate</t>
+  </si>
+  <si>
+    <t>Patate douce</t>
+  </si>
+  <si>
+    <t>Pâte</t>
+  </si>
+  <si>
+    <t>Pâte de tomate</t>
+  </si>
+  <si>
+    <t>Petit pain fourré</t>
+  </si>
+  <si>
+    <t>Petite tomate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piment de cayenne </t>
+  </si>
+  <si>
+    <t>Pita</t>
+  </si>
+  <si>
+    <t>Poivre</t>
+  </si>
+  <si>
+    <t>Poivron</t>
+  </si>
+  <si>
+    <t>Porc haché</t>
+  </si>
+  <si>
+    <t>Poudre à pâte</t>
+  </si>
+  <si>
+    <t>Poudre d'ail</t>
+  </si>
+  <si>
+    <t>Poudre de cari</t>
+  </si>
+  <si>
+    <t>Poudre de chili</t>
+  </si>
+  <si>
+    <t>Poudre d'oignon</t>
+  </si>
+  <si>
+    <t>Poulet</t>
+  </si>
+  <si>
+    <t>Poulet rôti</t>
+  </si>
+  <si>
+    <t>Quinoa</t>
+  </si>
+  <si>
+    <t>Rasoir</t>
+  </si>
+  <si>
+    <t>Relish</t>
+  </si>
+  <si>
+    <t>Riz</t>
+  </si>
+  <si>
+    <t>Sachet sauce bbq</t>
+  </si>
+  <si>
+    <t>Salade de chou</t>
+  </si>
+  <si>
+    <t>Sambal oelek</t>
+  </si>
+  <si>
+    <t>Sauce à burger</t>
+  </si>
+  <si>
+    <t>Sauce amir</t>
+  </si>
+  <si>
+    <t>Sauce bbq</t>
+  </si>
+  <si>
+    <t>Sauce soya</t>
+  </si>
+  <si>
+    <t>Sauce worcestershire</t>
+  </si>
+  <si>
+    <t>Saucisse</t>
+  </si>
+  <si>
+    <t>Saumon</t>
+  </si>
+  <si>
+    <t>Savon à linge</t>
+  </si>
+  <si>
+    <t>Savon vaisselle</t>
+  </si>
+  <si>
+    <t>Sel</t>
+  </si>
+  <si>
+    <t>Shake and bake</t>
+  </si>
+  <si>
+    <t>Sirop d'érable</t>
+  </si>
+  <si>
+    <t>Sucre</t>
+  </si>
+  <si>
+    <t>Tofu</t>
+  </si>
+  <si>
+    <t>Tomate</t>
+  </si>
+  <si>
+    <t>Tomate broyé</t>
+  </si>
+  <si>
+    <t>Tomate en dé</t>
+  </si>
+  <si>
+    <t>Tortillas</t>
+  </si>
+  <si>
+    <t>Vanille</t>
+  </si>
+  <si>
+    <t>Viande à fondu</t>
+  </si>
+  <si>
+    <t>Vinaigre</t>
+  </si>
+  <si>
+    <t>Vinaigre balsamique</t>
+  </si>
+  <si>
+    <t>Vinaigre de cidre de pomme</t>
+  </si>
+  <si>
+    <t>Vinaigre de riz</t>
+  </si>
+  <si>
+    <t>Vinaigrette grec</t>
+  </si>
+  <si>
+    <t>Windex</t>
+  </si>
+  <si>
+    <t>Yogourt grec</t>
+  </si>
   <si>
     <t>Semaine</t>
   </si>
@@ -54,562 +455,151 @@
     <t>Nouille chinoise</t>
   </si>
   <si>
+    <t>Porc haché, Pâte, Sauce soya, Sauce worcestershire, Ail, Cassonade, Huile de sésame, Oignon, Poivron, Brocoli, Céleri</t>
+  </si>
+  <si>
     <t>Bol à la grec</t>
   </si>
   <si>
+    <t>Poulet, Petite tomate, Laitue, Vinaigrette grec, Quinoa, Mayonnaise, Ail, Feta, Olive noire, Yogourt grec, Jus de citron, Bouillon de poulet</t>
+  </si>
+  <si>
+    <t>Pâte sauce rosée et saucisses</t>
+  </si>
+  <si>
+    <t>Pâte, Tomate broyé, Crème sans lactose, Oignon, Ail, Huile d'olive, Pâte de tomate, Herbe de provence, Saucisse</t>
+  </si>
+  <si>
     <t>Burger de poulet</t>
   </si>
   <si>
+    <t>Pain hamburger, Poulet, Épice poulet, Ketchup, Mayonnaise, Moutarde, Laitue, Tomate, Relish</t>
+  </si>
+  <si>
+    <t>Pâté chinois mexicain</t>
+  </si>
+  <si>
+    <t>Porc haché, Épice à tacos, Poivron, Oignon, Patate, Ketchup, Moutarde, Fromage râpé</t>
+  </si>
+  <si>
+    <t>Burritos au poulet / Quesadillas</t>
+  </si>
+  <si>
+    <t>Poulet, Épice à fajitas, Poivron, Tortillas, Fromage râpé, Mayonnaise, Sambal oelek, Herbe de provence</t>
+  </si>
+  <si>
+    <t>Salade de pâte et saucisses</t>
+  </si>
+  <si>
+    <t>Pâte, Petite tomate, Blé d'inde en canne, Mayonnaise, Jus de citron, Concombre, Moutarde de dijon, Saucisse, Brocoli</t>
+  </si>
+  <si>
+    <t>Pad thai au poulet</t>
+  </si>
+  <si>
+    <t>Poulet, Nouille de riz, Sauce soya, Fécule de mais, Vinaigre de riz, Jus de lime, Bouillon de poulet, Sambal oelek, Cassonade, Huile d'olive, Ail, Carotte, Fève germée</t>
+  </si>
+  <si>
+    <t>Tacos / Bol tacos</t>
+  </si>
+  <si>
+    <t>Bœuf haché, Épice à tacos, Oignon, Tortillas, Petite tomate, Laitue, Fromage râpé, Riz</t>
+  </si>
+  <si>
+    <t>Poulet et sauce à l'ananas</t>
+  </si>
+  <si>
+    <t>Poulet, Poivron, Oignon, Huile d'olive, Sauce soya, Moutarde moulu, Poudre d'ail, Jus d'anana, Sucre, Vinaigre, Sauce soya, Fécule de mais</t>
+  </si>
+  <si>
+    <t>Bol poulet bbq et patate douce</t>
+  </si>
+  <si>
+    <t>Poulet, Patate douce, Paprika, Poudre d'oignon, Poudre d'ail, Sauce bbq, Bouillon de poulet, Mayonnaise, Sauce worcestershire, Sirop d'érable, Vinaigre de cidre de pomme, Salade de chou, Fromage râpé, Cornichon</t>
+  </si>
+  <si>
     <t>Tofu général tao</t>
   </si>
   <si>
+    <t>Tofu, Riz, Poivron, Brocoli, Cassonade, Bouillon de poulet, Sauce soya, Vinaigre de riz, Ketchup, Fécule de mais, Sambal oelek, Huile d'olive</t>
+  </si>
+  <si>
+    <t>Pain fourré et salade</t>
+  </si>
+  <si>
+    <t>Porc haché, Épice à tacos, Oignon, Petit pain fourré, Ketchup, Moutarde, Fromage râpé, Bouillon de poulet</t>
+  </si>
+  <si>
+    <t>Casserole poulet bbq</t>
+  </si>
+  <si>
+    <t>Poulet, Patate, Fromage râpé, Paprika, Épice poulet, Sauce bbq, Poudre d'ail, Poudre d'oignon</t>
+  </si>
+  <si>
+    <t>Couscous et saucisses</t>
+  </si>
+  <si>
+    <t>Couscous, Saucisse, Concombre, Petite tomate, Jus de citron, Herbe de provence, Poivron</t>
+  </si>
+  <si>
+    <t>Poulet, patate pilée et sauce bbq</t>
+  </si>
+  <si>
+    <t>Poulet rôti, Patate, Lait, Margarine, Herbe de provence, Sachet sauce bbq, Salade de chou, Carotte</t>
+  </si>
+  <si>
+    <t>Bol burger</t>
+  </si>
+  <si>
+    <t>Riz, Porc haché, Épice à steak, Bovril, Petite tomate, Fromage râpé, Laitue, Sauce à burger, Cornichon</t>
+  </si>
+  <si>
+    <t>Shish taouk et patate grec</t>
+  </si>
+  <si>
+    <t>Poulet, Patate, Yogourt grec, Jus de citron, Ail, Pita, Tomate, Laitue, Sauce amir, Paprika, Poudre d'oignon, Poudre d'ail</t>
+  </si>
+  <si>
+    <t>Riz frit</t>
+  </si>
+  <si>
+    <t>Poulet, Riz, Poivron, Oignon, Sauce soya, Ail</t>
+  </si>
+  <si>
     <t>Chili</t>
   </si>
   <si>
-    <t>Bol burger</t>
+    <t>Porc haché, Pain naan, Oignon, Poivron, Ail, Huile d'olive, Poudre de chili, Cumin, Gingembre, Sambal oelek, Mélasse, Ketchup, Moutarde de dijon, Tomate broyé, Haricot rouge, Haricot noir, Haricot blanc</t>
+  </si>
+  <si>
+    <t>Sauté de porc et nouille</t>
   </si>
   <si>
     <t>Viande à fondu, Nouille au œufs, Sauce soya, Sauce worcestershire, Ail, Vinaigre de riz, Cassonade, Huile de sésame, Fécule de mais, Oignon, Poivron, Brocoli</t>
   </si>
   <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>In stock</t>
-  </si>
-  <si>
-    <t>Recurring</t>
-  </si>
-  <si>
-    <t>Ail</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Banane</t>
-  </si>
-  <si>
-    <t>Barre tendre Kim</t>
-  </si>
-  <si>
-    <t>Barre tendre Xav</t>
-  </si>
-  <si>
-    <t>Belsoy</t>
-  </si>
-  <si>
-    <t>Beurre</t>
-  </si>
-  <si>
-    <t>Beurre de peanut</t>
-  </si>
-  <si>
-    <t>Bouillon de poulet</t>
-  </si>
-  <si>
-    <t>Bran buds</t>
-  </si>
-  <si>
-    <t>Brocoli</t>
-  </si>
-  <si>
-    <t>Café</t>
-  </si>
-  <si>
-    <t>Cannelle</t>
-  </si>
-  <si>
-    <t>Carotte</t>
-  </si>
-  <si>
-    <t>Cassonade</t>
-  </si>
-  <si>
-    <t>Chili broyé</t>
-  </si>
-  <si>
-    <t>Compote</t>
-  </si>
-  <si>
-    <t>Concombre</t>
-  </si>
-  <si>
-    <t>Coriande</t>
-  </si>
-  <si>
-    <t>Couscous</t>
-  </si>
-  <si>
-    <t>Crème à raser</t>
-  </si>
-  <si>
-    <t>Cumin</t>
-  </si>
-  <si>
-    <t>Épice à légume</t>
-  </si>
-  <si>
-    <t>Épice poulet</t>
-  </si>
-  <si>
-    <t>Éponge à vaiselle</t>
-  </si>
-  <si>
-    <t>Farine</t>
-  </si>
-  <si>
-    <t>Fécule de mais</t>
-  </si>
-  <si>
-    <t>Framboise congelé</t>
-  </si>
-  <si>
-    <t>Fromage</t>
-  </si>
-  <si>
-    <t>Fromage râpé</t>
-  </si>
-  <si>
-    <t>Fruits</t>
-  </si>
-  <si>
-    <t>Gingembre</t>
-  </si>
-  <si>
-    <t>Haricot blanc</t>
-  </si>
-  <si>
-    <t>Haricot noir</t>
-  </si>
-  <si>
-    <t>Haricot rouge</t>
-  </si>
-  <si>
-    <t>Hertel</t>
-  </si>
-  <si>
-    <t>Huile de canola</t>
-  </si>
-  <si>
-    <t>Huile de sésame</t>
-  </si>
-  <si>
-    <t>Huile d'olive</t>
-  </si>
-  <si>
-    <t>Jus d'anana</t>
-  </si>
-  <si>
-    <t>Jus de citron</t>
-  </si>
-  <si>
-    <t>Ketchup</t>
-  </si>
-  <si>
-    <t>Lait</t>
-  </si>
-  <si>
-    <t>Laitue</t>
-  </si>
-  <si>
-    <t>Lysol</t>
-  </si>
-  <si>
-    <t>Margarine</t>
-  </si>
-  <si>
-    <t>Mayonnaise</t>
-  </si>
-  <si>
-    <t>Mélasse</t>
-  </si>
-  <si>
-    <t>Moutarde</t>
-  </si>
-  <si>
-    <t>Moutarde de dijon</t>
-  </si>
-  <si>
-    <t>Moutarde moulu</t>
-  </si>
-  <si>
-    <t>Oeuf</t>
-  </si>
-  <si>
-    <t>Oignon</t>
-  </si>
-  <si>
-    <t>Pain</t>
-  </si>
-  <si>
-    <t>Pain naan</t>
-  </si>
-  <si>
-    <t>Papier essuie-tout</t>
-  </si>
-  <si>
-    <t>Papier toilette</t>
-  </si>
-  <si>
-    <t>Paprika</t>
-  </si>
-  <si>
-    <t>Parmesan</t>
-  </si>
-  <si>
-    <t>Patate</t>
-  </si>
-  <si>
-    <t>Petite tomate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piment de cayenne </t>
-  </si>
-  <si>
-    <t>Pita</t>
-  </si>
-  <si>
-    <t>Poivre</t>
-  </si>
-  <si>
-    <t>Poivron</t>
-  </si>
-  <si>
-    <t>Poudre à pâte</t>
-  </si>
-  <si>
-    <t>Poudre d'ail</t>
-  </si>
-  <si>
-    <t>Poudre de cari</t>
-  </si>
-  <si>
-    <t>Poudre de chili</t>
-  </si>
-  <si>
-    <t>Poudre d'oignon</t>
-  </si>
-  <si>
-    <t>Poulet</t>
-  </si>
-  <si>
-    <t>Poulet rôti</t>
-  </si>
-  <si>
-    <t>Quinoa</t>
-  </si>
-  <si>
-    <t>Rasoir</t>
-  </si>
-  <si>
-    <t>Riz</t>
-  </si>
-  <si>
-    <t>Sambal oelek</t>
-  </si>
-  <si>
-    <t>Sauce à burger</t>
-  </si>
-  <si>
-    <t>Sauce amir</t>
-  </si>
-  <si>
-    <t>Sauce bbq</t>
-  </si>
-  <si>
-    <t>Sauce soya</t>
-  </si>
-  <si>
-    <t>Sauce worcestershire</t>
-  </si>
-  <si>
-    <t>Saucisse</t>
-  </si>
-  <si>
-    <t>Saumon</t>
-  </si>
-  <si>
-    <t>Savon à linge</t>
-  </si>
-  <si>
-    <t>Savon vaisselle</t>
-  </si>
-  <si>
-    <t>Sel</t>
-  </si>
-  <si>
-    <t>Shake and bake</t>
-  </si>
-  <si>
-    <t>Sirop d'érable</t>
-  </si>
-  <si>
-    <t>Sucre</t>
-  </si>
-  <si>
-    <t>Tofu</t>
-  </si>
-  <si>
-    <t>Tomate</t>
-  </si>
-  <si>
-    <t>Tomate broyé</t>
-  </si>
-  <si>
-    <t>Tomate en dé</t>
-  </si>
-  <si>
-    <t>Tortillas</t>
-  </si>
-  <si>
-    <t>Vanille</t>
-  </si>
-  <si>
-    <t>Viande à fondu</t>
-  </si>
-  <si>
-    <t>Vinaigre</t>
-  </si>
-  <si>
-    <t>Vinaigre balsamique</t>
-  </si>
-  <si>
-    <t>Vinaigre de riz</t>
-  </si>
-  <si>
-    <t>Vinaigrette grec</t>
-  </si>
-  <si>
-    <t>Windex</t>
-  </si>
-  <si>
-    <t>Yogourt grec</t>
-  </si>
-  <si>
-    <t>Bouillon de boeuf</t>
-  </si>
-  <si>
-    <t>Bovril boeuf</t>
-  </si>
-  <si>
-    <t>Épice à steak</t>
-  </si>
-  <si>
-    <t>Épice à fajitas</t>
-  </si>
-  <si>
-    <t>Épice italienne</t>
-  </si>
-  <si>
-    <t>Fève germée</t>
-  </si>
-  <si>
-    <t>Fève verte</t>
-  </si>
-  <si>
-    <t>Nouille au oeufs</t>
-  </si>
-  <si>
-    <t>Pain hamburger</t>
-  </si>
-  <si>
-    <t>Pâte</t>
-  </si>
-  <si>
-    <t>Petit pain fourré</t>
-  </si>
-  <si>
-    <t>Feta</t>
-  </si>
-  <si>
-    <t>Olive noire</t>
-  </si>
-  <si>
-    <t>Poulet, Petite tomate, Laitue, Vinaigrette grec, Quinoa, Mayonnaise, Ail, Feta, Olive noire, Yogourt grec, Jus de citron, Bouillon de poulet</t>
-  </si>
-  <si>
-    <t>Pâte sauce rosée et saucisses</t>
-  </si>
-  <si>
-    <t>Crème sans lactose</t>
-  </si>
-  <si>
-    <t>Pâte de tomate</t>
-  </si>
-  <si>
-    <t>Herbe de provence</t>
-  </si>
-  <si>
-    <t>Pâte, Tomate broyé, Crème sans lactose, Oignon, Ail, Huile d'olive, Pâte de tomate, Herbe de provence, Saucisse</t>
-  </si>
-  <si>
-    <t>Pain hamburger, Poulet, Épice poulet, Ketchup, Mayonnaise, Moutarde, Laitue, Tomate, Relish</t>
-  </si>
-  <si>
-    <t>Relish</t>
-  </si>
-  <si>
-    <t>Pâté chinois mexicain</t>
-  </si>
-  <si>
-    <t>Burritos au poulet / Quesadillas</t>
-  </si>
-  <si>
-    <t>Salade de pâte et saucisses</t>
-  </si>
-  <si>
-    <t>Pad thai au poulet</t>
-  </si>
-  <si>
-    <t>Tacos / Bol tacos</t>
-  </si>
-  <si>
-    <t>Poulet et sauce à l'ananas</t>
-  </si>
-  <si>
-    <t>Bol poulet bbq et patate douce</t>
-  </si>
-  <si>
-    <t>Pain fourré et salade</t>
-  </si>
-  <si>
-    <t>Casserole poulet bbq</t>
-  </si>
-  <si>
-    <t>Couscous et saucisses</t>
-  </si>
-  <si>
-    <t>Shish taouk et patate grec</t>
-  </si>
-  <si>
-    <t>Riz frit</t>
-  </si>
-  <si>
-    <t>Sauté de porc et nouille</t>
-  </si>
-  <si>
     <t>Brochette de poulet</t>
   </si>
   <si>
+    <t>Poulet, Yogourt grec, Jus de citron, Riz, Brocoli, Ail, Oignon, Poivron, Herbe de provence</t>
+  </si>
+  <si>
     <t>Porc effiloché</t>
   </si>
   <si>
+    <t>Longe de porc, Sauce bbq, Oignon, Ail, Bouillon de poulet, Patate, Carotte</t>
+  </si>
+  <si>
     <t>Pâte au saumon / Saumon et riz</t>
   </si>
   <si>
-    <t>Porc haché</t>
-  </si>
-  <si>
-    <t>Épice à tacos</t>
-  </si>
-  <si>
-    <t>Porc haché, Épice à tacos, Poivron, Oignon, Patate, Ketchup, Moutarde, Fromage râpé</t>
-  </si>
-  <si>
-    <t>Poulet, Épice à fajitas, Poivron, Tortillas, Fromage râpé, Mayonnaise, Sambal oelek, Herbe de provence</t>
-  </si>
-  <si>
-    <t>Blé d'inde en canne</t>
-  </si>
-  <si>
-    <t>Pâte, Petite tomate, Blé d'inde en canne, Mayonnaise, Jus de citron, Concombre, Moutarde de dijon, Saucisse, Brocoli</t>
-  </si>
-  <si>
-    <t>Nouille de riz</t>
-  </si>
-  <si>
-    <t>Jus de lime</t>
-  </si>
-  <si>
-    <t>Poulet, Nouille de riz, Sauce soya, Fécule de mais, Vinaigre de riz, Jus de lime, Bouillon de poulet, Sambal oelek, Cassonade, Huile d'olive, Ail, Carotte, Fève germée</t>
-  </si>
-  <si>
-    <t>Bœuf haché, Épice à tacos, Oignon, Tortillas, Petite tomate, Laitue, Fromage râpé, Riz</t>
-  </si>
-  <si>
-    <t>Poulet, Poivron, Oignon, Huile d'olive, Sauce soya, Moutarde moulu, Poudre d'ail, Jus d'anana, Sucre, Vinaigre, Sauce soya, Fécule de mais</t>
-  </si>
-  <si>
-    <t>Patate douce</t>
-  </si>
-  <si>
-    <t>Vinaigre de cidre de pomme</t>
-  </si>
-  <si>
-    <t>Salade de chou</t>
-  </si>
-  <si>
-    <t>Poulet, Patate douce, Paprika, Poudre d'oignon, Poudre d'ail, Sauce bbq, Bouillon de poulet, Mayonnaise, Sauce worcestershire, Sirop d'érable, Vinaigre de cidre de pomme, Salade de chou, Fromage râpé, Cornichon</t>
-  </si>
-  <si>
-    <t>Cornichon</t>
-  </si>
-  <si>
-    <t>Tofu, Riz, Poivron, Brocoli, Cassonade, Bouillon de poulet, Sauce soya, Vinaigre de riz, Ketchup, Fécule de mais, Sambal oelek, Huile d'olive</t>
-  </si>
-  <si>
-    <t>Porc haché, Épice à tacos, Oignon, Petit pain fourré, Ketchup, Moutarde, Fromage râpé, Bouillon de poulet</t>
-  </si>
-  <si>
-    <t>Poulet, Patate, Fromage râpé, Paprika, Épice poulet, Sauce bbq, Poudre d'ail, Poudre d'oignon</t>
-  </si>
-  <si>
-    <t>Couscous, Saucisse, Concombre, Petite tomate, Jus de citron, Herbe de provence, Poivron</t>
-  </si>
-  <si>
-    <t>Sachet sauce bbq</t>
-  </si>
-  <si>
-    <t>Poulet rôti, Patate, Lait, Margarine, Herbe de provence, Sachet sauce bbq, Salade de chou, Carotte</t>
-  </si>
-  <si>
-    <t>Riz, Porc haché, Épice à steak, Bovril, Petite tomate, Fromage râpé, Laitue, Sauce à burger, Cornichon</t>
-  </si>
-  <si>
-    <t>Poulet, Patate, Yogourt grec, Jus de citron, Ail, Pita, Tomate, Laitue, Sauce amir, Paprika, Poudre d'oignon, Poudre d'ail</t>
-  </si>
-  <si>
-    <t>Poulet, Riz, Poivron, Oignon, Sauce soya, Ail</t>
-  </si>
-  <si>
-    <t>Porc haché, Pain naan, Oignon, Poivron, Ail, Huile d'olive, Poudre de chili, Cumin, Gingembre, Sambal oelek, Mélasse, Ketchup, Moutarde de dijon, Tomate broyé, Haricot rouge, Haricot noir, Haricot blanc</t>
-  </si>
-  <si>
-    <t>Porc haché, Pâte, Sauce soya, Sauce worcestershire, Ail, Cassonade, Huile de sésame, Oignon, Poivron, Brocoli, Céleri</t>
-  </si>
-  <si>
-    <t>Céleri</t>
-  </si>
-  <si>
-    <t>Poulet, Yogourt grec, Jus de citron, Riz, Brocoli, Ail, Oignon, Poivron, Herbe de provence</t>
-  </si>
-  <si>
-    <t>Longe de porc</t>
-  </si>
-  <si>
-    <t>Longe de porc, Sauce bbq, Oignon, Ail, Bouillon de poulet, Patate, Carotte</t>
-  </si>
-  <si>
     <t>Saumon, Pâte, Riz, Carotte, Sirop d'érable, Sauce soya, Brocoli, Herbe de provence</t>
   </si>
   <si>
-    <t>Granola kim</t>
-  </si>
-  <si>
-    <t>Store</t>
-  </si>
-  <si>
-    <t>Appart</t>
-  </si>
-  <si>
-    <t>Costco</t>
-  </si>
-  <si>
-    <t>Poulet, patate pilée et sauce bbq</t>
+    <t>Sac ziploc</t>
+  </si>
+  <si>
+    <t>Sac poubelle</t>
   </si>
 </sst>
 </file>
@@ -1000,12 +990,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5EE295-D5EB-4158-B8A8-A538E9BFF134}">
-  <dimension ref="A1:D132"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1013,413 +1003,413 @@
     <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="2"/>
+    <col min="4" max="4" width="11.5546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>186</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>188</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>188</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>188</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>180</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>168</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>188</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1427,1456 +1417,1481 @@
         <v>36</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>188</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>188</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>185</v>
+        <v>52</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>133</v>
+        <v>56</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>182</v>
+        <v>67</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>188</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>188</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>188</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>188</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>188</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>164</v>
+        <v>88</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>188</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>188</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>188</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>188</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>173</v>
+        <v>109</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>89</v>
+        <v>190</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>188</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>188</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>188</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>188</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>187</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>187</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>187</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>137</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>138</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D132" xr:uid="{CE5EE295-D5EB-4158-B8A8-A538E9BFF134}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D132">
-    <sortCondition ref="A2:A132"/>
-  </sortState>
+  <autoFilter ref="A1:D135" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B118:C1048576" xr:uid="{62FA2DBA-9F3B-4EC0-A890-91170B0463AE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B120:C1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:C117" xr:uid="{C9156C60-5DF4-4C3A-92F2-343AF651F593}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:C119" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{0AF9494F-23C4-4BE0-99A3-981AF9639D65}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Appart,Costco"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2885,7 +2900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E7B79B-27E5-45CE-B6D8-0FC90E03396E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -2901,13 +2916,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -2915,10 +2930,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2926,10 +2941,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>144</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2937,10 +2952,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2948,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -2959,10 +2974,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -2970,10 +2985,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -2981,10 +2996,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -2992,10 +3007,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -3003,10 +3018,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -3014,10 +3029,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -3025,10 +3040,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -3036,10 +3051,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>6</v>
+        <v>164</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -3047,10 +3062,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -3058,10 +3073,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -3069,10 +3084,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -3080,10 +3095,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -3091,7 +3106,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>8</v>
+        <v>174</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>175</v>
@@ -3102,10 +3117,10 @@
         <v>5</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -3113,10 +3128,10 @@
         <v>5</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -3124,10 +3139,10 @@
         <v>5</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>7</v>
+        <v>180</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -3135,10 +3150,10 @@
         <v>6</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -3146,10 +3161,10 @@
         <v>6</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -3157,10 +3172,10 @@
         <v>6</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -3168,10 +3183,10 @@
         <v>6</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/grocery/grocery.xlsx
+++ b/grocery/grocery.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_repo\automated_grocery_list\grocery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DB1519-1443-4CBC-A377-013C5D9181D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF8BB05-0DA4-4966-99C6-AF354A2B155D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,6 +50,9 @@
     <t>Banane</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>Barre tendre Kim</t>
   </si>
   <si>
@@ -65,9 +68,6 @@
     <t>Beurre</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Beurre de peanut</t>
   </si>
   <si>
@@ -356,6 +356,12 @@
     <t>Sachet sauce bbq</t>
   </si>
   <si>
+    <t>Sac poubelle</t>
+  </si>
+  <si>
+    <t>Sac ziploc</t>
+  </si>
+  <si>
     <t>Salade de chou</t>
   </si>
   <si>
@@ -594,12 +600,6 @@
   </si>
   <si>
     <t>Saumon, Pâte, Riz, Carotte, Sirop d'érable, Sauce soya, Brocoli, Herbe de provence</t>
-  </si>
-  <si>
-    <t>Sac ziploc</t>
-  </si>
-  <si>
-    <t>Sac poubelle</t>
   </si>
 </sst>
 </file>
@@ -994,8 +994,8 @@
   <dimension ref="A1:D134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E137" sqref="E137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1039,7 +1039,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
@@ -1064,7 +1064,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -1073,32 +1073,32 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
@@ -1123,10 +1123,10 @@
         <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
@@ -1137,10 +1137,10 @@
         <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
@@ -1213,7 +1213,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1224,7 +1224,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
@@ -1280,7 +1280,7 @@
         <v>5</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
@@ -1308,7 +1308,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>6</v>
@@ -1322,7 +1322,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>6</v>
@@ -1336,7 +1336,7 @@
         <v>5</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>6</v>
@@ -1367,7 +1367,7 @@
         <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1375,10 +1375,10 @@
         <v>33</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>6</v>
@@ -1392,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>6</v>
@@ -1406,7 +1406,7 @@
         <v>5</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>6</v>
@@ -1420,7 +1420,7 @@
         <v>5</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>6</v>
@@ -1532,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>6</v>
@@ -1543,10 +1543,10 @@
         <v>45</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>6</v>
@@ -1557,10 +1557,10 @@
         <v>46</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>6</v>
@@ -1577,7 +1577,7 @@
         <v>5</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1591,7 +1591,7 @@
         <v>5</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1613,7 +1613,7 @@
         <v>50</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>5</v>
@@ -1630,7 +1630,7 @@
         <v>5</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>6</v>
@@ -1655,10 +1655,10 @@
         <v>53</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>6</v>
@@ -1669,10 +1669,10 @@
         <v>54</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>6</v>
@@ -1683,10 +1683,10 @@
         <v>55</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>6</v>
@@ -1697,7 +1697,7 @@
         <v>56</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>5</v>
@@ -1770,7 +1770,7 @@
         <v>5</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>6</v>
@@ -1798,7 +1798,7 @@
         <v>5</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>6</v>
@@ -1823,7 +1823,7 @@
         <v>65</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>5</v>
@@ -1837,10 +1837,10 @@
         <v>66</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>6</v>
@@ -1854,10 +1854,10 @@
         <v>5</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1899,7 +1899,7 @@
         <v>5</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1910,7 +1910,7 @@
         <v>5</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>6</v>
@@ -1952,7 +1952,7 @@
         <v>5</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>6</v>
@@ -1966,7 +1966,7 @@
         <v>5</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>6</v>
@@ -1980,7 +1980,7 @@
         <v>5</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>6</v>
@@ -1991,7 +1991,7 @@
         <v>77</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>5</v>
@@ -2019,10 +2019,10 @@
         <v>79</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>6</v>
@@ -2081,7 +2081,7 @@
         <v>5</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -2095,7 +2095,7 @@
         <v>5</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -2123,7 +2123,7 @@
         <v>5</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -2134,7 +2134,7 @@
         <v>5</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>6</v>
@@ -2145,10 +2145,10 @@
         <v>88</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>6</v>
@@ -2162,7 +2162,7 @@
         <v>5</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>6</v>
@@ -2173,10 +2173,10 @@
         <v>90</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>6</v>
@@ -2190,7 +2190,7 @@
         <v>5</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>6</v>
@@ -2201,10 +2201,10 @@
         <v>92</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>6</v>
@@ -2218,7 +2218,7 @@
         <v>5</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>6</v>
@@ -2232,10 +2232,10 @@
         <v>5</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -2257,7 +2257,7 @@
         <v>96</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>5</v>
@@ -2277,7 +2277,7 @@
         <v>5</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -2316,7 +2316,7 @@
         <v>5</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>6</v>
@@ -2330,7 +2330,7 @@
         <v>5</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>6</v>
@@ -2361,7 +2361,7 @@
         <v>5</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -2369,10 +2369,10 @@
         <v>104</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>6</v>
@@ -2403,7 +2403,7 @@
         <v>5</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -2414,7 +2414,7 @@
         <v>5</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>6</v>
@@ -2439,10 +2439,10 @@
         <v>109</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>6</v>
@@ -2450,10 +2450,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>191</v>
+        <v>110</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>5</v>
@@ -2464,7 +2464,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>190</v>
+        <v>111</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>5</v>
@@ -2478,13 +2478,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>6</v>
@@ -2492,13 +2492,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>6</v>
@@ -2506,13 +2506,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>6</v>
@@ -2520,13 +2520,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>6</v>
@@ -2534,13 +2534,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>6</v>
@@ -2548,7 +2548,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>5</v>
@@ -2562,7 +2562,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>5</v>
@@ -2576,7 +2576,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>5</v>
@@ -2585,26 +2585,26 @@
         <v>5</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>5</v>
@@ -2613,12 +2613,12 @@
         <v>5</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>5</v>
@@ -2627,12 +2627,12 @@
         <v>5</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>5</v>
@@ -2646,13 +2646,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>6</v>
@@ -2660,7 +2660,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>5</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>5</v>
@@ -2688,13 +2688,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>6</v>
@@ -2702,13 +2702,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>6</v>
@@ -2716,13 +2716,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>6</v>
@@ -2730,13 +2730,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>6</v>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>5</v>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>5</v>
@@ -2772,13 +2772,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>6</v>
@@ -2786,7 +2786,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>5</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>5</v>
@@ -2814,13 +2814,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>6</v>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>5</v>
@@ -2842,13 +2842,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>6</v>
@@ -2856,7 +2856,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>5</v>
@@ -2870,10 +2870,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>5</v>
@@ -2916,13 +2916,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -2930,10 +2930,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2941,10 +2941,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2952,10 +2952,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2963,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -2974,10 +2974,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -2985,10 +2985,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -2996,10 +2996,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -3007,10 +3007,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -3018,10 +3018,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -3029,10 +3029,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -3040,10 +3040,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -3051,10 +3051,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -3062,10 +3062,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -3073,10 +3073,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -3084,10 +3084,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -3095,10 +3095,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -3106,10 +3106,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -3117,10 +3117,10 @@
         <v>5</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -3128,10 +3128,10 @@
         <v>5</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -3139,10 +3139,10 @@
         <v>5</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -3150,10 +3150,10 @@
         <v>6</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -3161,10 +3161,10 @@
         <v>6</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -3172,10 +3172,10 @@
         <v>6</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -3183,10 +3183,10 @@
         <v>6</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/grocery/grocery.xlsx
+++ b/grocery/grocery.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_repo\automated_grocery_list\grocery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF8BB05-0DA4-4966-99C6-AF354A2B155D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A305913C-F0EA-46CD-BBB0-2171CBE445CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,14 @@
     <sheet name="recipes" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">inventory!$A$1:$D$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">inventory!$A$1:$D$136</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="193">
   <si>
     <t>Item</t>
   </si>
@@ -50,24 +50,24 @@
     <t>Banane</t>
   </si>
   <si>
+    <t>Barre tendre Kim</t>
+  </si>
+  <si>
+    <t>Barre tendre Xav</t>
+  </si>
+  <si>
+    <t>Costco</t>
+  </si>
+  <si>
+    <t>Belsoy</t>
+  </si>
+  <si>
+    <t>Beurre</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Barre tendre Kim</t>
-  </si>
-  <si>
-    <t>Barre tendre Xav</t>
-  </si>
-  <si>
-    <t>Costco</t>
-  </si>
-  <si>
-    <t>Belsoy</t>
-  </si>
-  <si>
-    <t>Beurre</t>
-  </si>
-  <si>
     <t>Beurre de peanut</t>
   </si>
   <si>
@@ -600,6 +600,9 @@
   </si>
   <si>
     <t>Saumon, Pâte, Riz, Carotte, Sirop d'érable, Sauce soya, Brocoli, Herbe de provence</t>
+  </si>
+  <si>
+    <t>Gâterie Cooper</t>
   </si>
 </sst>
 </file>
@@ -991,11 +994,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D134"/>
+  <dimension ref="A1:D135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E137" sqref="E137"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1039,7 +1042,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
@@ -1050,7 +1053,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
@@ -1064,41 +1067,41 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
@@ -1123,10 +1126,10 @@
         <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
@@ -1137,10 +1140,10 @@
         <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
@@ -1213,7 +1216,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1224,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
@@ -1280,7 +1283,7 @@
         <v>5</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
@@ -1308,7 +1311,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>6</v>
@@ -1322,7 +1325,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>6</v>
@@ -1336,7 +1339,7 @@
         <v>5</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>6</v>
@@ -1367,7 +1370,7 @@
         <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1375,10 +1378,10 @@
         <v>33</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>6</v>
@@ -1392,7 +1395,7 @@
         <v>5</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>6</v>
@@ -1406,7 +1409,7 @@
         <v>5</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>6</v>
@@ -1420,7 +1423,7 @@
         <v>5</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>6</v>
@@ -1532,7 +1535,7 @@
         <v>5</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>6</v>
@@ -1543,10 +1546,10 @@
         <v>45</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>6</v>
@@ -1557,10 +1560,10 @@
         <v>46</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>6</v>
@@ -1571,13 +1574,13 @@
         <v>47</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1585,13 +1588,13 @@
         <v>48</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1599,7 +1602,7 @@
         <v>49</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>5</v>
@@ -1613,7 +1616,7 @@
         <v>50</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>5</v>
@@ -1624,27 +1627,27 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>192</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>6</v>
@@ -1652,13 +1655,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>6</v>
@@ -1666,13 +1669,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>6</v>
@@ -1680,13 +1683,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>6</v>
@@ -1694,13 +1697,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>6</v>
@@ -1708,7 +1711,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>5</v>
@@ -1722,7 +1725,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>5</v>
@@ -1736,7 +1739,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>5</v>
@@ -1750,7 +1753,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>5</v>
@@ -1764,13 +1767,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>6</v>
@@ -1778,13 +1781,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>6</v>
@@ -1792,13 +1795,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>6</v>
@@ -1806,13 +1809,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>6</v>
@@ -1820,10 +1823,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>5</v>
@@ -1834,13 +1837,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>6</v>
@@ -1848,35 +1851,35 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>5</v>
@@ -1890,7 +1893,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>5</v>
@@ -1899,32 +1902,32 @@
         <v>5</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>6</v>
@@ -1932,7 +1935,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>5</v>
@@ -1946,13 +1949,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>6</v>
@@ -1960,13 +1963,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>6</v>
@@ -1974,13 +1977,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>6</v>
@@ -1988,13 +1991,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>6</v>
@@ -2002,7 +2005,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>5</v>
@@ -2016,13 +2019,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>6</v>
@@ -2030,13 +2033,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>6</v>
@@ -2044,7 +2047,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>5</v>
@@ -2058,7 +2061,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>5</v>
@@ -2072,7 +2075,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>5</v>
@@ -2081,12 +2084,12 @@
         <v>5</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>5</v>
@@ -2095,12 +2098,12 @@
         <v>5</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>5</v>
@@ -2109,12 +2112,12 @@
         <v>5</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>5</v>
@@ -2123,32 +2126,32 @@
         <v>5</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>6</v>
@@ -2156,13 +2159,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>6</v>
@@ -2170,13 +2173,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>6</v>
@@ -2184,13 +2187,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>6</v>
@@ -2198,13 +2201,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>6</v>
@@ -2212,13 +2215,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>6</v>
@@ -2226,38 +2229,38 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>5</v>
@@ -2268,7 +2271,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>5</v>
@@ -2277,12 +2280,12 @@
         <v>5</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>5</v>
@@ -2291,12 +2294,12 @@
         <v>5</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>5</v>
@@ -2310,13 +2313,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>6</v>
@@ -2324,13 +2327,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>6</v>
@@ -2338,13 +2341,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>6</v>
@@ -2352,7 +2355,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>5</v>
@@ -2361,32 +2364,32 @@
         <v>5</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>6</v>
@@ -2394,7 +2397,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>5</v>
@@ -2403,32 +2406,32 @@
         <v>5</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>6</v>
@@ -2436,13 +2439,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>6</v>
@@ -2450,13 +2453,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>6</v>
@@ -2464,7 +2467,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>5</v>
@@ -2478,13 +2481,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>6</v>
@@ -2492,13 +2495,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>6</v>
@@ -2506,13 +2509,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>6</v>
@@ -2520,13 +2523,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>6</v>
@@ -2534,13 +2537,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>6</v>
@@ -2548,13 +2551,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>6</v>
@@ -2562,7 +2565,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>5</v>
@@ -2576,7 +2579,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>5</v>
@@ -2585,40 +2588,40 @@
         <v>5</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>5</v>
@@ -2627,12 +2630,12 @@
         <v>5</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>5</v>
@@ -2641,18 +2644,18 @@
         <v>5</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>6</v>
@@ -2660,13 +2663,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>6</v>
@@ -2674,7 +2677,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>5</v>
@@ -2688,13 +2691,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>6</v>
@@ -2702,13 +2705,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>6</v>
@@ -2716,13 +2719,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>6</v>
@@ -2730,13 +2733,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>6</v>
@@ -2744,13 +2747,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>6</v>
@@ -2758,7 +2761,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>5</v>
@@ -2772,13 +2775,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>6</v>
@@ -2786,13 +2789,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>6</v>
@@ -2800,7 +2803,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>5</v>
@@ -2814,13 +2817,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>6</v>
@@ -2828,13 +2831,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>6</v>
@@ -2842,13 +2845,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>6</v>
@@ -2856,13 +2859,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>6</v>
@@ -2870,25 +2873,39 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
+        <v>139</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
         <v>140</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D134" s="2" t="s">
+      <c r="B135" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D135" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D136" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B120:C1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B121:C1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:C119" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:C120" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">

--- a/grocery/grocery.xlsx
+++ b/grocery/grocery.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_repo\automated_grocery_list\grocery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A305913C-F0EA-46CD-BBB0-2171CBE445CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1742CFE-313D-4B88-818E-2A914CE80D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,6 +50,9 @@
     <t>Banane</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>Barre tendre Kim</t>
   </si>
   <si>
@@ -65,9 +68,6 @@
     <t>Beurre</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Beurre de peanut</t>
   </si>
   <si>
@@ -179,6 +179,9 @@
     <t>Fruits</t>
   </si>
   <si>
+    <t>Gâterie Cooper</t>
+  </si>
+  <si>
     <t>Gingembre</t>
   </si>
   <si>
@@ -600,9 +603,6 @@
   </si>
   <si>
     <t>Saumon, Pâte, Riz, Carotte, Sirop d'érable, Sauce soya, Brocoli, Herbe de provence</t>
-  </si>
-  <si>
-    <t>Gâterie Cooper</t>
   </si>
 </sst>
 </file>
@@ -997,8 +997,8 @@
   <dimension ref="A1:D135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G44" sqref="G44"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G122" sqref="G122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1042,7 +1042,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -1076,32 +1076,32 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
@@ -1126,10 +1126,10 @@
         <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
@@ -1140,10 +1140,10 @@
         <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
@@ -1154,7 +1154,7 @@
         <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>5</v>
@@ -1196,7 +1196,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>5</v>
@@ -1216,7 +1216,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1227,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
@@ -1283,7 +1283,7 @@
         <v>5</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
@@ -1311,7 +1311,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>6</v>
@@ -1325,7 +1325,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>6</v>
@@ -1339,7 +1339,7 @@
         <v>5</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>6</v>
@@ -1370,7 +1370,7 @@
         <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1378,10 +1378,10 @@
         <v>33</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>6</v>
@@ -1395,7 +1395,7 @@
         <v>5</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>6</v>
@@ -1409,7 +1409,7 @@
         <v>5</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>6</v>
@@ -1423,7 +1423,7 @@
         <v>5</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>6</v>
@@ -1535,7 +1535,7 @@
         <v>5</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>6</v>
@@ -1546,10 +1546,10 @@
         <v>45</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>6</v>
@@ -1560,10 +1560,10 @@
         <v>46</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>6</v>
@@ -1574,13 +1574,13 @@
         <v>47</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1588,13 +1588,13 @@
         <v>48</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1602,7 +1602,7 @@
         <v>49</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>5</v>
@@ -1616,7 +1616,7 @@
         <v>50</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>5</v>
@@ -1627,27 +1627,27 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>192</v>
+        <v>51</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>6</v>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>5</v>
@@ -1669,13 +1669,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>6</v>
@@ -1683,13 +1683,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>6</v>
@@ -1697,13 +1697,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>6</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>5</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>5</v>
@@ -1739,10 +1739,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>5</v>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>5</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>5</v>
@@ -1781,13 +1781,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>6</v>
@@ -1795,7 +1795,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>5</v>
@@ -1809,13 +1809,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>6</v>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>5</v>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>5</v>
@@ -1851,13 +1851,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>6</v>
@@ -1865,21 +1865,21 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>5</v>
@@ -1893,7 +1893,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>5</v>
@@ -1907,7 +1907,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>5</v>
@@ -1916,18 +1916,18 @@
         <v>5</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>6</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>5</v>
@@ -1949,7 +1949,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>5</v>
@@ -1963,13 +1963,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>6</v>
@@ -1977,13 +1977,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>6</v>
@@ -1991,13 +1991,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>6</v>
@@ -2005,10 +2005,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>5</v>
@@ -2019,10 +2019,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>5</v>
@@ -2033,13 +2033,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>6</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>5</v>
@@ -2061,10 +2061,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>5</v>
@@ -2075,7 +2075,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>5</v>
@@ -2089,7 +2089,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>5</v>
@@ -2098,12 +2098,12 @@
         <v>5</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>5</v>
@@ -2112,12 +2112,12 @@
         <v>5</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>5</v>
@@ -2131,7 +2131,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>5</v>
@@ -2140,18 +2140,18 @@
         <v>5</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>6</v>
@@ -2159,13 +2159,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>6</v>
@@ -2173,13 +2173,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>6</v>
@@ -2187,13 +2187,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>6</v>
@@ -2201,13 +2201,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>6</v>
@@ -2215,13 +2215,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>6</v>
@@ -2229,13 +2229,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>6</v>
@@ -2243,21 +2243,21 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>5</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>5</v>
@@ -2285,7 +2285,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>5</v>
@@ -2294,12 +2294,12 @@
         <v>5</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>5</v>
@@ -2313,7 +2313,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>5</v>
@@ -2327,13 +2327,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>6</v>
@@ -2341,13 +2341,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>6</v>
@@ -2355,7 +2355,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>5</v>
@@ -2369,7 +2369,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>5</v>
@@ -2378,18 +2378,18 @@
         <v>5</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>6</v>
@@ -2397,7 +2397,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>5</v>
@@ -2411,7 +2411,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>5</v>
@@ -2420,18 +2420,18 @@
         <v>5</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>6</v>
@@ -2439,7 +2439,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>5</v>
@@ -2453,13 +2453,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>6</v>
@@ -2467,7 +2467,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>5</v>
@@ -2481,7 +2481,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>5</v>
@@ -2495,13 +2495,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>6</v>
@@ -2509,13 +2509,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>6</v>
@@ -2523,13 +2523,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>6</v>
@@ -2537,13 +2537,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>6</v>
@@ -2551,13 +2551,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>6</v>
@@ -2565,7 +2565,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>5</v>
@@ -2579,7 +2579,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>5</v>
@@ -2593,7 +2593,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>5</v>
@@ -2602,26 +2602,26 @@
         <v>5</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>5</v>
@@ -2630,12 +2630,12 @@
         <v>5</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>5</v>
@@ -2644,12 +2644,12 @@
         <v>5</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>5</v>
@@ -2663,13 +2663,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>6</v>
@@ -2677,7 +2677,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>5</v>
@@ -2691,7 +2691,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>5</v>
@@ -2705,13 +2705,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>6</v>
@@ -2719,13 +2719,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>6</v>
@@ -2733,13 +2733,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>6</v>
@@ -2747,13 +2747,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>6</v>
@@ -2761,7 +2761,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>5</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>5</v>
@@ -2789,13 +2789,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>6</v>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>5</v>
@@ -2817,7 +2817,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>5</v>
@@ -2831,13 +2831,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>6</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>5</v>
@@ -2859,13 +2859,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>6</v>
@@ -2873,7 +2873,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>5</v>
@@ -2887,10 +2887,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>5</v>
@@ -2933,13 +2933,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -2947,10 +2947,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2958,10 +2958,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2969,10 +2969,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2980,10 +2980,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -2991,10 +2991,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -3002,10 +3002,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3013,10 +3013,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -3024,10 +3024,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -3035,10 +3035,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -3046,10 +3046,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -3057,10 +3057,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -3068,10 +3068,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -3079,10 +3079,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -3090,10 +3090,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -3101,10 +3101,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -3112,10 +3112,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -3123,10 +3123,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -3134,10 +3134,10 @@
         <v>5</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -3145,10 +3145,10 @@
         <v>5</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -3156,10 +3156,10 @@
         <v>5</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -3167,10 +3167,10 @@
         <v>6</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -3178,10 +3178,10 @@
         <v>6</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -3189,10 +3189,10 @@
         <v>6</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -3200,10 +3200,10 @@
         <v>6</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/grocery/grocery.xlsx
+++ b/grocery/grocery.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_repo\automated_grocery_list\grocery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1742CFE-313D-4B88-818E-2A914CE80D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52130254-5D63-40CC-A6C6-C32656AC3481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,14 @@
     <sheet name="recipes" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">inventory!$A$1:$D$136</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">inventory!$A$1:$D$139</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="196">
   <si>
     <t>Item</t>
   </si>
@@ -47,21 +47,24 @@
     <t>Appart</t>
   </si>
   <si>
+    <t>Bagel</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Costco</t>
+  </si>
+  <si>
     <t>Banane</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Barre tendre Kim</t>
   </si>
   <si>
     <t>Barre tendre Xav</t>
   </si>
   <si>
-    <t>Costco</t>
-  </si>
-  <si>
     <t>Belsoy</t>
   </si>
   <si>
@@ -236,6 +239,9 @@
     <t>Lysol</t>
   </si>
   <si>
+    <t>Mandarine</t>
+  </si>
+  <si>
     <t>Margarine</t>
   </si>
   <si>
@@ -266,6 +272,9 @@
     <t>Oignon</t>
   </si>
   <si>
+    <t>Oignon croustillant</t>
+  </si>
+  <si>
     <t>Olive noire</t>
   </si>
   <si>
@@ -536,7 +545,7 @@
     <t>Pain fourré et salade</t>
   </si>
   <si>
-    <t>Porc haché, Épice à tacos, Oignon, Petit pain fourré, Ketchup, Moutarde, Fromage râpé, Bouillon de poulet</t>
+    <t>Porc haché, Épice à tacos, Oignon, Petit pain fourré, Ketchup, Moutarde, Fromage râpé, Bouillon de poulet, Laitue, Concombre, Mandarine, Oignon croustillant</t>
   </si>
   <si>
     <t>Casserole poulet bbq</t>
@@ -994,11 +1003,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D135"/>
+  <dimension ref="A1:D138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G122" sqref="G122"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1045,18 +1054,18 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
@@ -1067,7 +1076,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -1076,7 +1085,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1090,7 +1099,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1101,10 +1110,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1115,7 +1124,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
@@ -1126,10 +1135,10 @@
         <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
@@ -1157,7 +1166,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
@@ -1196,7 +1205,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>5</v>
@@ -1216,7 +1225,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1227,10 +1236,10 @@
         <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1241,7 +1250,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
@@ -1280,10 +1289,10 @@
         <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
@@ -1297,7 +1306,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>6</v>
@@ -1311,7 +1320,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>6</v>
@@ -1322,7 +1331,7 @@
         <v>29</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>8</v>
@@ -1353,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>6</v>
@@ -1370,7 +1379,7 @@
         <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1378,13 +1387,13 @@
         <v>33</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1392,7 +1401,7 @@
         <v>34</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>8</v>
@@ -1437,7 +1446,7 @@
         <v>5</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>6</v>
@@ -1535,7 +1544,7 @@
         <v>5</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>6</v>
@@ -1546,7 +1555,7 @@
         <v>45</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>8</v>
@@ -1574,13 +1583,13 @@
         <v>47</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1594,7 +1603,7 @@
         <v>5</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1608,7 +1617,7 @@
         <v>5</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1630,13 +1639,13 @@
         <v>51</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1647,10 +1656,10 @@
         <v>5</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1661,7 +1670,7 @@
         <v>5</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>6</v>
@@ -1672,10 +1681,10 @@
         <v>54</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>6</v>
@@ -1714,10 +1723,10 @@
         <v>57</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>6</v>
@@ -1742,7 +1751,7 @@
         <v>59</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>5</v>
@@ -1787,7 +1796,7 @@
         <v>5</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>6</v>
@@ -1801,7 +1810,7 @@
         <v>5</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>6</v>
@@ -1815,7 +1824,7 @@
         <v>5</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>6</v>
@@ -1829,7 +1838,7 @@
         <v>5</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>6</v>
@@ -1854,10 +1863,10 @@
         <v>67</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>6</v>
@@ -1874,7 +1883,7 @@
         <v>8</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1885,10 +1894,10 @@
         <v>5</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1910,13 +1919,13 @@
         <v>71</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1927,7 +1936,7 @@
         <v>5</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>6</v>
@@ -1944,7 +1953,7 @@
         <v>5</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1955,7 +1964,7 @@
         <v>5</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>6</v>
@@ -1969,7 +1978,7 @@
         <v>5</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>6</v>
@@ -1983,7 +1992,7 @@
         <v>5</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>6</v>
@@ -2008,10 +2017,10 @@
         <v>78</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>6</v>
@@ -2022,10 +2031,10 @@
         <v>79</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>6</v>
@@ -2039,7 +2048,7 @@
         <v>8</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>6</v>
@@ -2067,7 +2076,7 @@
         <v>8</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>6</v>
@@ -2078,10 +2087,10 @@
         <v>83</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>6</v>
@@ -2098,7 +2107,7 @@
         <v>5</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -2112,7 +2121,7 @@
         <v>5</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -2140,7 +2149,7 @@
         <v>5</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -2148,13 +2157,13 @@
         <v>88</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -2162,10 +2171,10 @@
         <v>89</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>6</v>
@@ -2179,10 +2188,10 @@
         <v>5</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -2204,7 +2213,7 @@
         <v>92</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>8</v>
@@ -2218,7 +2227,7 @@
         <v>93</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>8</v>
@@ -2232,7 +2241,7 @@
         <v>94</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>8</v>
@@ -2246,13 +2255,13 @@
         <v>95</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -2260,10 +2269,10 @@
         <v>96</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>6</v>
@@ -2277,7 +2286,7 @@
         <v>5</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>6</v>
@@ -2291,10 +2300,10 @@
         <v>5</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -2316,7 +2325,7 @@
         <v>100</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>5</v>
@@ -2330,13 +2339,13 @@
         <v>101</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -2347,7 +2356,7 @@
         <v>5</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>6</v>
@@ -2375,10 +2384,10 @@
         <v>5</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -2386,7 +2395,7 @@
         <v>105</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>8</v>
@@ -2414,13 +2423,13 @@
         <v>107</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -2428,7 +2437,7 @@
         <v>108</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>8</v>
@@ -2456,13 +2465,13 @@
         <v>110</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -2473,7 +2482,7 @@
         <v>5</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>6</v>
@@ -2515,7 +2524,7 @@
         <v>5</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>6</v>
@@ -2529,7 +2538,7 @@
         <v>5</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>6</v>
@@ -2571,7 +2580,7 @@
         <v>5</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>6</v>
@@ -2585,7 +2594,7 @@
         <v>5</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>6</v>
@@ -2599,10 +2608,10 @@
         <v>5</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -2610,13 +2619,13 @@
         <v>121</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -2630,7 +2639,7 @@
         <v>5</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -2638,13 +2647,13 @@
         <v>123</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -2652,13 +2661,13 @@
         <v>124</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -2669,10 +2678,10 @@
         <v>5</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -2686,7 +2695,7 @@
         <v>5</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -2708,7 +2717,7 @@
         <v>128</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>8</v>
@@ -2722,10 +2731,10 @@
         <v>129</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>6</v>
@@ -2736,10 +2745,10 @@
         <v>130</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>6</v>
@@ -2764,10 +2773,10 @@
         <v>132</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>6</v>
@@ -2778,10 +2787,10 @@
         <v>133</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>6</v>
@@ -2834,7 +2843,7 @@
         <v>137</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>8</v>
@@ -2865,7 +2874,7 @@
         <v>5</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>6</v>
@@ -2879,7 +2888,7 @@
         <v>5</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>6</v>
@@ -2890,7 +2899,7 @@
         <v>141</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>5</v>
@@ -2899,13 +2908,55 @@
         <v>6</v>
       </c>
     </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>142</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>143</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>144</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D136" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D139" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B121:C1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B124:C1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:C120" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:C123" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
@@ -2921,7 +2972,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2933,13 +2984,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -2947,10 +2998,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2958,10 +3009,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2969,10 +3020,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2980,10 +3031,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -2991,10 +3042,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -3002,10 +3053,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3013,10 +3064,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -3024,10 +3075,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -3035,10 +3086,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -3046,10 +3097,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -3057,10 +3108,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -3068,10 +3119,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -3079,10 +3130,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -3090,10 +3141,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -3101,10 +3152,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -3112,10 +3163,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -3123,10 +3174,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -3134,10 +3185,10 @@
         <v>5</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -3145,10 +3196,10 @@
         <v>5</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -3156,10 +3207,10 @@
         <v>5</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -3167,10 +3218,10 @@
         <v>6</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -3178,10 +3229,10 @@
         <v>6</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -3189,10 +3240,10 @@
         <v>6</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -3200,10 +3251,10 @@
         <v>6</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/grocery/grocery.xlsx
+++ b/grocery/grocery.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_repo\automated_grocery_list\grocery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52130254-5D63-40CC-A6C6-C32656AC3481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B13F827-D292-493B-A8E6-B1CE4F8C78E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inventory" sheetId="1" r:id="rId1"/>
     <sheet name="recipes" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">inventory!$A$1:$D$139</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">inventory!$A$1:$D$140</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="197">
   <si>
     <t>Item</t>
   </si>
@@ -203,9 +203,6 @@
     <t>Herbe de provence</t>
   </si>
   <si>
-    <t>Hertel</t>
-  </si>
-  <si>
     <t>Huile de canola</t>
   </si>
   <si>
@@ -587,31 +584,37 @@
     <t>Chili</t>
   </si>
   <si>
+    <t>Sauté de porc et nouille</t>
+  </si>
+  <si>
+    <t>Viande à fondu, Nouille au œufs, Sauce soya, Sauce worcestershire, Ail, Vinaigre de riz, Cassonade, Huile de sésame, Fécule de mais, Oignon, Poivron, Brocoli</t>
+  </si>
+  <si>
+    <t>Brochette de poulet</t>
+  </si>
+  <si>
+    <t>Poulet, Yogourt grec, Jus de citron, Riz, Brocoli, Ail, Oignon, Poivron, Herbe de provence</t>
+  </si>
+  <si>
+    <t>Porc effiloché</t>
+  </si>
+  <si>
+    <t>Longe de porc, Sauce bbq, Oignon, Ail, Bouillon de poulet, Patate, Carotte</t>
+  </si>
+  <si>
+    <t>Pâte au saumon / Saumon et riz</t>
+  </si>
+  <si>
+    <t>Saumon, Pâte, Riz, Carotte, Sirop d'érable, Sauce soya, Brocoli, Herbe de provence</t>
+  </si>
+  <si>
     <t>Porc haché, Pain naan, Oignon, Poivron, Ail, Huile d'olive, Poudre de chili, Cumin, Gingembre, Sambal oelek, Mélasse, Ketchup, Moutarde de dijon, Tomate broyé, Haricot rouge, Haricot noir, Haricot blanc</t>
   </si>
   <si>
-    <t>Sauté de porc et nouille</t>
-  </si>
-  <si>
-    <t>Viande à fondu, Nouille au œufs, Sauce soya, Sauce worcestershire, Ail, Vinaigre de riz, Cassonade, Huile de sésame, Fécule de mais, Oignon, Poivron, Brocoli</t>
-  </si>
-  <si>
-    <t>Brochette de poulet</t>
-  </si>
-  <si>
-    <t>Poulet, Yogourt grec, Jus de citron, Riz, Brocoli, Ail, Oignon, Poivron, Herbe de provence</t>
-  </si>
-  <si>
-    <t>Porc effiloché</t>
-  </si>
-  <si>
-    <t>Longe de porc, Sauce bbq, Oignon, Ail, Bouillon de poulet, Patate, Carotte</t>
-  </si>
-  <si>
-    <t>Pâte au saumon / Saumon et riz</t>
-  </si>
-  <si>
-    <t>Saumon, Pâte, Riz, Carotte, Sirop d'érable, Sauce soya, Brocoli, Herbe de provence</t>
+    <t>Hertel crème</t>
+  </si>
+  <si>
+    <t>Hertel spray</t>
   </si>
 </sst>
 </file>
@@ -1003,22 +1006,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D138"/>
+  <dimension ref="A1:D139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F70" sqref="F70"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1032,7 +1035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1046,7 +1049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1060,7 +1063,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1074,7 +1077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1088,7 +1091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1102,7 +1105,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1116,7 +1119,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1130,7 +1133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1144,7 +1147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1158,7 +1161,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1172,7 +1175,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1186,7 +1189,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1200,7 +1203,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1214,12 +1217,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>5</v>
@@ -1228,7 +1231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1242,7 +1245,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1256,7 +1259,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1270,7 +1273,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1284,12 +1287,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>5</v>
@@ -1298,7 +1301,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1312,7 +1315,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1326,7 +1329,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1340,7 +1343,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1354,7 +1357,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1368,7 +1371,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1382,7 +1385,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1396,7 +1399,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1410,7 +1413,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1424,7 +1427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1438,7 +1441,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1452,7 +1455,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -1466,7 +1469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -1480,7 +1483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -1494,7 +1497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -1508,7 +1511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -1522,7 +1525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -1536,7 +1539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -1550,7 +1553,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -1564,7 +1567,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -1578,7 +1581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -1592,7 +1595,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -1606,12 +1609,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>49</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>5</v>
@@ -1620,12 +1623,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>50</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>5</v>
@@ -1634,7 +1637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -1648,7 +1651,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -1662,7 +1665,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -1676,7 +1679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -1690,7 +1693,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -1704,7 +1707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -1718,7 +1721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -1732,7 +1735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -1746,415 +1749,415 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>195</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>196</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>59</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="B55" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="B56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>61</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="B57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>62</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="B58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>63</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="B59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>64</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="B60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>65</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+      <c r="B61" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>66</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="B62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>67</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="B63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>68</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="B64" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>69</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" s="2" t="s">
+      <c r="B65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>70</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>71</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>72</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>73</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+      <c r="B69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>74</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+      <c r="B70" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>75</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+      <c r="B71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>76</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+      <c r="B72" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>77</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+      <c r="B73" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>78</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+      <c r="B74" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>79</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+      <c r="B75" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>80</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+      <c r="B76" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>81</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+      <c r="B77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>82</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+      <c r="B78" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>83</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+      <c r="B79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>84</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+      <c r="B80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>85</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+      <c r="B81" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>86</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>87</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>88</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>5</v>
@@ -2166,527 +2169,527 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>89</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+      <c r="B85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>90</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D84" s="2" t="s">
+      <c r="B86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>91</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>96</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>97</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>91</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>92</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>93</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>94</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>95</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>96</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>97</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>98</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D92" s="2" t="s">
+      <c r="B94" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>99</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>100</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>99</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>100</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>101</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D95" s="2" t="s">
+      <c r="B97" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>102</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>103</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>104</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>105</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>106</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>102</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>103</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>104</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>105</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>106</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>107</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D101" s="2" t="s">
+      <c r="B103" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>108</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>109</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>108</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>109</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>110</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+      <c r="B106" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>111</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+      <c r="B107" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>112</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+      <c r="B108" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>113</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+      <c r="B109" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>114</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
+      <c r="B110" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>115</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
+      <c r="B111" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>116</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
+      <c r="B112" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>117</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
+      <c r="B113" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>118</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
+      <c r="B114" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>119</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
+      <c r="B115" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>120</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
+      <c r="B116" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>121</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
+      <c r="B117" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>122</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>123</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>124</v>
-      </c>
       <c r="B118" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>5</v>
@@ -2698,265 +2701,279 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>125</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>126</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>127</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
+      <c r="B123" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>128</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
+      <c r="B124" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>129</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
+      <c r="B125" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>130</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
+      <c r="B126" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>131</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
+      <c r="B127" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>132</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
+      <c r="B128" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>133</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
+      <c r="B129" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>134</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
+      <c r="B130" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>135</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
+      <c r="B131" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>136</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
+      <c r="B132" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>137</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
+      <c r="B133" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>138</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
+      <c r="B134" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>139</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
+      <c r="B135" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>140</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
+      <c r="B136" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>141</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
+      <c r="B137" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>142</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
+      <c r="B138" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>143</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>144</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D138" s="2" t="s">
+      <c r="B139" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D139" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D140" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B124:C1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B125:C1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:C123" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:C124" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
@@ -2975,286 +2992,286 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="173.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="193.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>4</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>5</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>5</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C18" s="2" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>5</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>5</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C19" s="2" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>5</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>5</v>
-      </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C20" s="2" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>5</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>5</v>
-      </c>
-      <c r="B21" s="4" t="s">
+      <c r="C21" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>6</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>6</v>
-      </c>
-      <c r="B22" s="3" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>6</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>6</v>
-      </c>
-      <c r="B23" s="3" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>6</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>6</v>
-      </c>
-      <c r="B24" s="3" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>6</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>193</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>6</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/grocery/grocery.xlsx
+++ b/grocery/grocery.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_repo\automated_grocery_list\grocery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B13F827-D292-493B-A8E6-B1CE4F8C78E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB97949A-FA6C-4F4C-9493-E22C9858F7B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -203,6 +203,12 @@
     <t>Herbe de provence</t>
   </si>
   <si>
+    <t>Hertel crème</t>
+  </si>
+  <si>
+    <t>Hertel spray</t>
+  </si>
+  <si>
     <t>Huile de canola</t>
   </si>
   <si>
@@ -584,6 +590,9 @@
     <t>Chili</t>
   </si>
   <si>
+    <t>Porc haché, Pain naan, Oignon, Poivron, Ail, Huile d'olive, Poudre de chili, Cumin, Gingembre, Sambal oelek, Mélasse, Ketchup, Moutarde de dijon, Tomate broyé, Haricot rouge, Haricot noir, Haricot blanc</t>
+  </si>
+  <si>
     <t>Sauté de porc et nouille</t>
   </si>
   <si>
@@ -606,15 +615,6 @@
   </si>
   <si>
     <t>Saumon, Pâte, Riz, Carotte, Sirop d'érable, Sauce soya, Brocoli, Herbe de provence</t>
-  </si>
-  <si>
-    <t>Porc haché, Pain naan, Oignon, Poivron, Ail, Huile d'olive, Poudre de chili, Cumin, Gingembre, Sambal oelek, Mélasse, Ketchup, Moutarde de dijon, Tomate broyé, Haricot rouge, Haricot noir, Haricot blanc</t>
-  </si>
-  <si>
-    <t>Hertel crème</t>
-  </si>
-  <si>
-    <t>Hertel spray</t>
   </si>
 </sst>
 </file>
@@ -1009,8 +1009,8 @@
   <dimension ref="A1:D139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1057,7 +1057,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -1096,7 +1096,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>
@@ -1320,7 +1320,7 @@
         <v>28</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>5</v>
@@ -1751,7 +1751,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>195</v>
+        <v>59</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>5</v>
@@ -1765,10 +1765,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>196</v>
+        <v>60</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>5</v>
@@ -1779,7 +1779,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>5</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>5</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>5</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>5</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>5</v>
@@ -1849,7 +1849,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>5</v>
@@ -1863,7 +1863,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>5</v>
@@ -1877,10 +1877,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>5</v>
@@ -1891,10 +1891,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>8</v>
@@ -1905,13 +1905,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>9</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>5</v>
@@ -1933,7 +1933,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>8</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>5</v>
@@ -1961,7 +1961,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>5</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>5</v>
@@ -1989,7 +1989,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>5</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>5</v>
@@ -2017,7 +2017,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>5</v>
@@ -2031,10 +2031,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>8</v>
@@ -2045,7 +2045,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>5</v>
@@ -2059,7 +2059,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>8</v>
@@ -2073,7 +2073,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>5</v>
@@ -2087,7 +2087,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>8</v>
@@ -2101,7 +2101,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>8</v>
@@ -2115,7 +2115,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>5</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>5</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>5</v>
@@ -2157,7 +2157,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>5</v>
@@ -2171,7 +2171,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>5</v>
@@ -2185,7 +2185,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>5</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>5</v>
@@ -2213,7 +2213,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>5</v>
@@ -2227,7 +2227,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>8</v>
@@ -2241,13 +2241,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>6</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>8</v>
@@ -2269,7 +2269,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>8</v>
@@ -2283,7 +2283,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>5</v>
@@ -2297,7 +2297,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>5</v>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>8</v>
@@ -2325,7 +2325,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>5</v>
@@ -2339,10 +2339,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>5</v>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>5</v>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>5</v>
@@ -2381,7 +2381,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>5</v>
@@ -2395,7 +2395,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>5</v>
@@ -2409,7 +2409,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>5</v>
@@ -2423,7 +2423,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>5</v>
@@ -2437,7 +2437,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>5</v>
@@ -2451,7 +2451,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>8</v>
@@ -2465,7 +2465,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>5</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>5</v>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>5</v>
@@ -2507,7 +2507,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>5</v>
@@ -2521,7 +2521,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>8</v>
@@ -2535,7 +2535,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>5</v>
@@ -2549,7 +2549,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>5</v>
@@ -2563,7 +2563,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>5</v>
@@ -2577,7 +2577,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>5</v>
@@ -2591,7 +2591,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>8</v>
@@ -2605,7 +2605,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>8</v>
@@ -2619,7 +2619,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>5</v>
@@ -2633,7 +2633,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>5</v>
@@ -2647,7 +2647,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>5</v>
@@ -2661,7 +2661,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>5</v>
@@ -2675,10 +2675,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>8</v>
@@ -2689,7 +2689,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>5</v>
@@ -2703,10 +2703,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>5</v>
@@ -2717,7 +2717,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>5</v>
@@ -2731,7 +2731,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>5</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>5</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>5</v>
@@ -2773,7 +2773,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>8</v>
@@ -2787,7 +2787,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>5</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>8</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>8</v>
@@ -2829,7 +2829,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>5</v>
@@ -2843,7 +2843,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>5</v>
@@ -2857,10 +2857,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>8</v>
@@ -2871,7 +2871,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>5</v>
@@ -2885,7 +2885,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>5</v>
@@ -2899,7 +2899,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>5</v>
@@ -2913,7 +2913,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>5</v>
@@ -2927,7 +2927,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>5</v>
@@ -2941,7 +2941,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>5</v>
@@ -2955,7 +2955,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>8</v>
@@ -3001,13 +3001,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3015,10 +3015,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3026,10 +3026,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3037,10 +3037,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3048,10 +3048,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3059,10 +3059,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3070,10 +3070,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3081,10 +3081,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3092,10 +3092,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -3103,10 +3103,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -3114,10 +3114,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -3125,10 +3125,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -3136,10 +3136,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -3147,10 +3147,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -3158,10 +3158,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -3169,10 +3169,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -3180,10 +3180,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -3191,10 +3191,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -3202,10 +3202,10 @@
         <v>5</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -3213,10 +3213,10 @@
         <v>5</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -3224,10 +3224,10 @@
         <v>5</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -3235,10 +3235,10 @@
         <v>6</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -3246,10 +3246,10 @@
         <v>6</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -3257,10 +3257,10 @@
         <v>6</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -3268,10 +3268,10 @@
         <v>6</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/grocery/grocery.xlsx
+++ b/grocery/grocery.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_repo\automated_grocery_list\grocery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB97949A-FA6C-4F4C-9493-E22C9858F7B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406C97BE-9300-4F30-AAEF-7EF99BFE196F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,15 +50,15 @@
     <t>Bagel</t>
   </si>
   <si>
+    <t>Costco</t>
+  </si>
+  <si>
+    <t>Banane</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Costco</t>
-  </si>
-  <si>
-    <t>Banane</t>
-  </si>
-  <si>
     <t>Barre tendre Kim</t>
   </si>
   <si>
@@ -482,7 +482,7 @@
     <t>Bol à la grec</t>
   </si>
   <si>
-    <t>Poulet, Petite tomate, Laitue, Vinaigrette grec, Quinoa, Mayonnaise, Ail, Feta, Olive noire, Yogourt grec, Jus de citron, Bouillon de poulet</t>
+    <t>Poulet, Concombre, Petite tomate, Laitue, Vinaigrette grec, Quinoa, Mayonnaise, Ail, Feta, Olive noire, Yogourt grec, Jus de citron, Bouillon de poulet</t>
   </si>
   <si>
     <t>Pâte sauce rosée et saucisses</t>
@@ -1009,8 +1009,8 @@
   <dimension ref="A1:D139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F85" sqref="F85"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,21 +1054,21 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
@@ -1096,13 +1096,13 @@
         <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1116,7 +1116,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1127,7 +1127,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
@@ -1152,10 +1152,10 @@
         <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
@@ -1166,10 +1166,10 @@
         <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
@@ -1222,7 +1222,7 @@
         <v>21</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>5</v>
@@ -1242,7 +1242,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1253,7 +1253,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
@@ -1309,7 +1309,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>6</v>
@@ -1320,7 +1320,7 @@
         <v>28</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>5</v>
@@ -1334,10 +1334,10 @@
         <v>29</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>6</v>
@@ -1351,7 +1351,7 @@
         <v>5</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>6</v>
@@ -1365,7 +1365,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>6</v>
@@ -1396,7 +1396,7 @@
         <v>5</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1404,10 +1404,10 @@
         <v>34</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>6</v>
@@ -1421,7 +1421,7 @@
         <v>5</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>6</v>
@@ -1435,7 +1435,7 @@
         <v>5</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>6</v>
@@ -1449,7 +1449,7 @@
         <v>5</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>6</v>
@@ -1561,7 +1561,7 @@
         <v>5</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>6</v>
@@ -1572,10 +1572,10 @@
         <v>46</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>6</v>
@@ -1586,10 +1586,10 @@
         <v>47</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>6</v>
@@ -1606,7 +1606,7 @@
         <v>5</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1620,7 +1620,7 @@
         <v>5</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1642,7 +1642,7 @@
         <v>51</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>5</v>
@@ -1662,7 +1662,7 @@
         <v>5</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1673,7 +1673,7 @@
         <v>5</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>6</v>
@@ -1698,10 +1698,10 @@
         <v>55</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>6</v>
@@ -1712,10 +1712,10 @@
         <v>56</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>6</v>
@@ -1726,10 +1726,10 @@
         <v>57</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>6</v>
@@ -1827,7 +1827,7 @@
         <v>5</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>6</v>
@@ -1855,7 +1855,7 @@
         <v>5</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>6</v>
@@ -1866,7 +1866,7 @@
         <v>67</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>5</v>
@@ -1880,7 +1880,7 @@
         <v>68</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>5</v>
@@ -1894,10 +1894,10 @@
         <v>69</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>6</v>
@@ -1914,7 +1914,7 @@
         <v>5</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1936,10 +1936,10 @@
         <v>72</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>6</v>
@@ -1970,7 +1970,7 @@
         <v>5</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1981,7 +1981,7 @@
         <v>5</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>6</v>
@@ -2023,7 +2023,7 @@
         <v>5</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>6</v>
@@ -2034,10 +2034,10 @@
         <v>79</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>6</v>
@@ -2051,7 +2051,7 @@
         <v>5</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>6</v>
@@ -2062,7 +2062,7 @@
         <v>81</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>5</v>
@@ -2090,10 +2090,10 @@
         <v>83</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>6</v>
@@ -2104,10 +2104,10 @@
         <v>84</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>6</v>
@@ -2146,7 +2146,7 @@
         <v>87</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>5</v>
@@ -2166,7 +2166,7 @@
         <v>5</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2174,13 +2174,13 @@
         <v>89</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2208,7 +2208,7 @@
         <v>5</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2219,7 +2219,7 @@
         <v>5</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>6</v>
@@ -2230,10 +2230,10 @@
         <v>93</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>6</v>
@@ -2244,7 +2244,7 @@
         <v>94</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>5</v>
@@ -2258,10 +2258,10 @@
         <v>95</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>6</v>
@@ -2272,10 +2272,10 @@
         <v>96</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>6</v>
@@ -2286,10 +2286,10 @@
         <v>97</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>6</v>
@@ -2303,7 +2303,7 @@
         <v>5</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>6</v>
@@ -2314,13 +2314,13 @@
         <v>99</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2342,7 +2342,7 @@
         <v>101</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>5</v>
@@ -2362,7 +2362,7 @@
         <v>5</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2401,7 +2401,7 @@
         <v>5</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>6</v>
@@ -2415,7 +2415,7 @@
         <v>5</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>6</v>
@@ -2446,7 +2446,7 @@
         <v>5</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -2454,10 +2454,10 @@
         <v>109</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>6</v>
@@ -2468,7 +2468,7 @@
         <v>110</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>5</v>
@@ -2488,7 +2488,7 @@
         <v>5</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -2496,10 +2496,10 @@
         <v>112</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>6</v>
@@ -2524,10 +2524,10 @@
         <v>114</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>6</v>
@@ -2552,7 +2552,7 @@
         <v>116</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>5</v>
@@ -2569,7 +2569,7 @@
         <v>5</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>6</v>
@@ -2583,7 +2583,7 @@
         <v>5</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>6</v>
@@ -2594,10 +2594,10 @@
         <v>119</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>6</v>
@@ -2608,10 +2608,10 @@
         <v>120</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>6</v>
@@ -2625,7 +2625,7 @@
         <v>5</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>6</v>
@@ -2670,7 +2670,7 @@
         <v>5</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -2681,10 +2681,10 @@
         <v>5</v>
       </c>
       <c r="C119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -2698,7 +2698,7 @@
         <v>5</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -2712,7 +2712,7 @@
         <v>5</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -2737,7 +2737,7 @@
         <v>5</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>6</v>
@@ -2776,10 +2776,10 @@
         <v>132</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>6</v>
@@ -2790,10 +2790,10 @@
         <v>133</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>6</v>
@@ -2804,10 +2804,10 @@
         <v>134</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>6</v>
@@ -2818,10 +2818,10 @@
         <v>135</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>6</v>
@@ -2863,7 +2863,7 @@
         <v>5</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>6</v>
@@ -2905,7 +2905,7 @@
         <v>5</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>6</v>
@@ -2933,7 +2933,7 @@
         <v>5</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>6</v>
@@ -2958,7 +2958,7 @@
         <v>145</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>5</v>
@@ -2988,8 +2988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/grocery/grocery.xlsx
+++ b/grocery/grocery.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_repo\automated_grocery_list\grocery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406C97BE-9300-4F30-AAEF-7EF99BFE196F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51887E1F-59FB-465B-8CD1-24D178E41D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1009,8 +1009,8 @@
   <dimension ref="A1:D139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1432,7 +1432,7 @@
         <v>36</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>10</v>
@@ -1474,7 +1474,7 @@
         <v>39</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>5</v>
@@ -1628,7 +1628,7 @@
         <v>50</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>5</v>
@@ -2216,7 +2216,7 @@
         <v>92</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>10</v>
@@ -2989,7 +2989,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/grocery/grocery.xlsx
+++ b/grocery/grocery.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_repo\automated_grocery_list\grocery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11282DB-15DE-42D2-B461-F5C45A5DD6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCEE870-00EC-41CA-9B6F-D24635849FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1010,7 +1010,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B140" sqref="B140"/>
+      <selection pane="bottomLeft" activeCell="I121" sqref="I121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1054,7 +1054,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
@@ -1180,7 +1180,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>5</v>
@@ -1292,7 +1292,7 @@
         <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>5</v>
@@ -1432,7 +1432,7 @@
         <v>36</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>10</v>
@@ -1558,7 +1558,7 @@
         <v>45</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>48</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>5</v>
@@ -1614,7 +1614,7 @@
         <v>49</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>5</v>
@@ -1656,7 +1656,7 @@
         <v>52</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>5</v>
@@ -1936,7 +1936,7 @@
         <v>72</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>10</v>
@@ -1964,7 +1964,7 @@
         <v>74</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>5</v>
@@ -2132,7 +2132,7 @@
         <v>86</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>5</v>
@@ -2146,7 +2146,7 @@
         <v>87</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>5</v>
@@ -2230,7 +2230,7 @@
         <v>93</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>10</v>
@@ -2244,7 +2244,7 @@
         <v>94</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>5</v>
@@ -2272,7 +2272,7 @@
         <v>96</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>10</v>
@@ -2342,7 +2342,7 @@
         <v>101</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>5</v>
@@ -2468,7 +2468,7 @@
         <v>110</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>5</v>
@@ -2510,7 +2510,7 @@
         <v>113</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>5</v>
@@ -2608,7 +2608,7 @@
         <v>120</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>10</v>
@@ -2622,7 +2622,7 @@
         <v>121</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>10</v>
@@ -2664,7 +2664,7 @@
         <v>124</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>5</v>
@@ -2692,7 +2692,7 @@
         <v>126</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>5</v>
@@ -2930,7 +2930,7 @@
         <v>143</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>10</v>

--- a/grocery/grocery.xlsx
+++ b/grocery/grocery.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_repo\automated_grocery_list\grocery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCEE870-00EC-41CA-9B6F-D24635849FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB20C57C-5545-4FB2-8C05-FC86370044A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inventory" sheetId="1" r:id="rId1"/>
@@ -1009,19 +1009,19 @@
   <dimension ref="A1:D139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I121" sqref="I121"/>
+      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H120" sqref="H120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1175,12 +1175,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>5</v>
@@ -1189,7 +1189,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1315,12 +1315,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>5</v>
@@ -1329,7 +1329,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -1469,12 +1469,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>5</v>
@@ -1483,7 +1483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -1623,12 +1623,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>50</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>5</v>
@@ -1637,7 +1637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -1875,12 +1875,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>68</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>5</v>
@@ -1889,7 +1889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -1931,12 +1931,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>72</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>10</v>
@@ -1945,7 +1945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -2071,12 +2071,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>82</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>5</v>
@@ -2085,7 +2085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -2113,12 +2113,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>85</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>5</v>
@@ -2127,12 +2127,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>86</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>5</v>
@@ -2141,12 +2141,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>87</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>5</v>
@@ -2155,7 +2155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -2211,12 +2211,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>92</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>10</v>
@@ -2225,7 +2225,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>101</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>102</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>104</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>105</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>106</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>107</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>108</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>109</v>
       </c>
@@ -2463,12 +2463,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>110</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>5</v>
@@ -2477,7 +2477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>111</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>112</v>
       </c>
@@ -2505,12 +2505,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>113</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>5</v>
@@ -2519,7 +2519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>114</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>115</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>116</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>117</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>118</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>119</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>120</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>121</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>122</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>123</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>124</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>125</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>126</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>127</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>128</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>129</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>130</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>131</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>132</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>133</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>134</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>135</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>136</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>137</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>138</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>139</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>140</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>141</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>142</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>143</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>144</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>145</v>
       </c>
@@ -2992,14 +2992,14 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="193.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="193.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>146</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>3</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>3</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>3</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>4</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>4</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>4</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>4</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>5</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>5</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>5</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>5</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>6</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>6</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>6</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>6</v>
       </c>

--- a/grocery/grocery.xlsx
+++ b/grocery/grocery.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_repo\automated_grocery_list\grocery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB20C57C-5545-4FB2-8C05-FC86370044A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6438F5A4-C8DB-4854-B577-A5B31D05290D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1009,8 +1009,8 @@
   <dimension ref="A1:D139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H120" sqref="H120"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,7 +1180,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>5</v>
@@ -1614,7 +1614,7 @@
         <v>49</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>5</v>
@@ -1628,7 +1628,7 @@
         <v>50</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>5</v>
@@ -1656,7 +1656,7 @@
         <v>52</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>5</v>
@@ -1740,7 +1740,7 @@
         <v>58</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>5</v>
@@ -2076,7 +2076,7 @@
         <v>82</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>5</v>
@@ -2216,7 +2216,7 @@
         <v>92</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>10</v>
@@ -2342,7 +2342,7 @@
         <v>101</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>5</v>

--- a/grocery/grocery.xlsx
+++ b/grocery/grocery.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_repo\automated_grocery_list\grocery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6438F5A4-C8DB-4854-B577-A5B31D05290D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64A772D-1A60-4EB4-9EAF-30CC56EEC782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inventory" sheetId="1" r:id="rId1"/>
@@ -1009,19 +1009,19 @@
   <dimension ref="A1:D139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B142" sqref="B142"/>
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F133" sqref="F133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1133,12 +1133,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>5</v>
@@ -1147,7 +1147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1217,12 +1217,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>5</v>
@@ -1231,7 +1231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1287,12 +1287,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>5</v>
@@ -1301,7 +1301,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1315,12 +1315,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>5</v>
@@ -1329,7 +1329,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1427,12 +1427,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>10</v>
@@ -1441,7 +1441,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -1609,12 +1609,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>5</v>
@@ -1623,12 +1623,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>50</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>5</v>
@@ -1637,7 +1637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -1735,12 +1735,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>58</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>5</v>
@@ -1749,7 +1749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -1875,12 +1875,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>68</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>5</v>
@@ -1889,12 +1889,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>69</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>10</v>
@@ -1903,7 +1903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -1945,12 +1945,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>73</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>5</v>
@@ -1959,7 +1959,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -2113,12 +2113,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>85</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>5</v>
@@ -2127,7 +2127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -2239,12 +2239,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>94</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>5</v>
@@ -2253,7 +2253,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -2309,12 +2309,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>99</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>10</v>
@@ -2323,7 +2323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>101</v>
       </c>
@@ -2351,12 +2351,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>102</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>5</v>
@@ -2365,7 +2365,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>104</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>105</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>106</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>107</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>108</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>109</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>110</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>111</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>112</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>113</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>114</v>
       </c>
@@ -2533,12 +2533,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>115</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>5</v>
@@ -2547,12 +2547,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>116</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>5</v>
@@ -2561,7 +2561,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>117</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>118</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>119</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>120</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>121</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>122</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>123</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>124</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>125</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>126</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>127</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>128</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>129</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>130</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>131</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>132</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>133</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>134</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>135</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>136</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>137</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>138</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>139</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>140</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>141</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>142</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>143</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>144</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>145</v>
       </c>
@@ -2992,14 +2992,14 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="193.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="193.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>146</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>3</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>3</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>3</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>4</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>4</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>4</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>4</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>5</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>5</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>5</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>5</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>6</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>6</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>6</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>6</v>
       </c>
